--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>串行</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>静态线程+信号量同步</t>
+  </si>
+  <si>
+    <t>静态线程+barrier同步</t>
   </si>
   <si>
     <t>neon arm 不对齐 -o2</t>
@@ -1013,8 +1016,8 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1256,32 +1259,144 @@
         <v>1326324</v>
       </c>
     </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="1">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>810</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1318</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1743</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" s="1">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2550</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2895</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="A24" s="1">
+        <v>256</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5935</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6261</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7573</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="1">
+        <v>512</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21110</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18328</v>
+      </c>
+      <c r="D25" s="1">
+        <v>21054</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100619</v>
+      </c>
+      <c r="C26" s="1">
+        <v>70068</v>
+      </c>
+      <c r="D26" s="1">
+        <v>67265</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1514484</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1335012</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1389486</v>
+      </c>
+    </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10">

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
-    <t>串行</t>
+    <t>x86串行</t>
   </si>
   <si>
     <t>普通高斯消元</t>
+  </si>
+  <si>
+    <t>x86动态线程</t>
   </si>
   <si>
     <t>加速比</t>
@@ -49,10 +52,47 @@
     <t>SSE</t>
   </si>
   <si>
-    <t>静态线程+信号量同步</t>
+    <t>x86静态线程+信号量同步</t>
   </si>
   <si>
-    <t>静态线程+barrier同步</t>
+    <t>x86静态线程+barrier同步</t>
+  </si>
+  <si>
+    <r>
+      <t>x86静态线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号量同步版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三重循环全部纳入线程函数</t>
+    </r>
   </si>
   <si>
     <t>neon arm 不对齐 -o2</t>
@@ -80,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +134,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -238,6 +283,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -560,133 +610,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -700,8 +750,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1034,7 +1084,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,14 +1092,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="E1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1">
         <v>32</v>
       </c>
@@ -1057,8 +1109,11 @@
         <v>40</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
+      <c r="D2" s="1">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27928</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1066,8 +1121,11 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -1075,11 +1133,17 @@
         <v>325</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="F3" s="1">
+      <c r="D3" s="1">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
+        <v>110316</v>
+      </c>
+      <c r="G3" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -1087,11 +1151,17 @@
         <v>2188</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="F4" s="1">
+      <c r="D4" s="1">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1">
+        <v>430543</v>
+      </c>
+      <c r="G4" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1099,11 +1169,17 @@
         <v>15568</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="F5" s="1">
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1785005</v>
+      </c>
+      <c r="G5" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -1111,11 +1187,17 @@
         <v>140059</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" s="1">
+      <c r="D6" s="1">
+        <v>512</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8359920</v>
+      </c>
+      <c r="G6" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1123,11 +1205,17 @@
         <v>1139062</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="F7" s="1">
+      <c r="D7" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E7" s="1">
+        <v>37027523</v>
+      </c>
+      <c r="G7" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1">
         <v>2048</v>
       </c>
@@ -1135,18 +1223,18 @@
         <v>9196672</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="6:6">
-      <c r="F9" s="1">
+    <row r="9" s="1" customFormat="1" spans="7:7">
+      <c r="G9" s="1">
         <v>2048</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1200,7 +1288,7 @@
         <v>8311</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
@@ -1261,7 +1349,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1371,261 +1459,355 @@
         <v>1389486</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+    <row r="30" ht="46" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>795</v>
+      </c>
+      <c r="C31" s="1">
+        <v>971</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1271</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1356</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2418</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2643</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6357</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5594</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>512</v>
+      </c>
+      <c r="B35" s="1">
+        <v>22447</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17466</v>
+      </c>
+      <c r="D35" s="1">
+        <v>27668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100989</v>
+      </c>
+      <c r="C36" s="1">
+        <v>71229</v>
+      </c>
+      <c r="D36" s="1">
+        <v>85605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1656823</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1440250</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1445745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1">
+      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B66" s="1">
         <v>1.71</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D66" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
+      <c r="G66" s="1">
         <v>32</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H66" s="1">
         <v>2.85</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I66" s="1">
         <v>1.82</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J66" s="1">
         <v>3.33</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1">
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B67" s="1">
         <v>2.46</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C67" s="1">
         <v>1.04</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D67" s="1">
         <v>2.6875</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
+      <c r="G67" s="1">
         <v>64</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H67" s="1">
         <v>2.68</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I67" s="1">
         <v>1.146</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J67" s="1">
         <v>2.85</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
         <v>128</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B68" s="1">
         <v>2.73</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C68" s="1">
         <v>1.03</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D68" s="1">
         <v>2.89</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
+      <c r="G68" s="1">
         <v>128</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H68" s="1">
         <v>2.77</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I68" s="1">
         <v>1.03</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J68" s="1">
         <v>3.94</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1">
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
         <v>256</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B69" s="1">
         <v>2.88</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C69" s="1">
         <v>1.03</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D69" s="1">
         <v>2.98</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1">
+      <c r="G69" s="1">
         <v>256</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H69" s="1">
         <v>2.88</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I69" s="1">
         <v>1.02</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J69" s="1">
         <v>3.03</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1">
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
         <v>512</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B70" s="1">
         <v>2.98</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C70" s="1">
         <v>1.007</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D70" s="1">
         <v>3.02</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1">
+      <c r="G70" s="1">
         <v>512</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H70" s="1">
         <v>3.16</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I70" s="1">
         <v>1.7</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J70" s="1">
         <v>3.29</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1">
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
         <v>1024</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B71" s="1">
         <v>3.226</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C71" s="1">
         <v>1.03</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D71" s="1">
         <v>3.25</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1">
+      <c r="G71" s="1">
         <v>1024</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H71" s="1">
         <v>3.287</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I71" s="1">
         <v>1.07</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J71" s="1">
         <v>3.34</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1">
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
         <v>2048</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B72" s="1">
         <v>2.83</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C72" s="1">
         <v>1.01</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D72" s="1">
         <v>2.845</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1">
+      <c r="G72" s="1">
         <v>2048</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H72" s="1">
         <v>2.75</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I72" s="1">
         <v>0.95</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J72" s="1">
         <v>2.787</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1">
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
         <v>4096</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B73" s="1">
         <v>2.85</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C73" s="1">
         <v>0.86</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D73" s="1">
         <v>2</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1">
+      <c r="G73" s="1">
         <v>4096</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H73" s="1">
         <v>2.45</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I73" s="1">
         <v>1.03</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J73" s="1">
         <v>2.42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>x86静态线程</t>
     </r>
     <r>
@@ -1066,8 +1071,8 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>x86串行</t>
   </si>
@@ -37,25 +37,19 @@
     <t>普通高斯消元</t>
   </si>
   <si>
-    <t>x86动态线程</t>
-  </si>
-  <si>
-    <t>加速比</t>
-  </si>
-  <si>
-    <t>问题规模</t>
-  </si>
-  <si>
-    <t>AVX</t>
-  </si>
-  <si>
-    <t>SSE</t>
+    <t>arm串行</t>
   </si>
   <si>
     <t>x86静态线程+信号量同步</t>
   </si>
   <si>
+    <t>arm静态线程+信号量同步</t>
+  </si>
+  <si>
     <t>x86静态线程+barrier同步</t>
+  </si>
+  <si>
+    <t>arm静态线程+barrier同步</t>
   </si>
   <si>
     <r>
@@ -100,6 +94,49 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>arm静态线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号量同步版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三重循环全部纳入线程函数</t>
+    </r>
+  </si>
+  <si>
+    <t>x86动态线程</t>
+  </si>
+  <si>
+    <t>arm动态线程</t>
+  </si>
+  <si>
     <t>neon arm 不对齐 -o2</t>
   </si>
   <si>
@@ -113,6 +150,18 @@
   </si>
   <si>
     <t>neon arm 对齐 -o2</t>
+  </si>
+  <si>
+    <t>加速比</t>
+  </si>
+  <si>
+    <t>问题规模</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>SSE</t>
   </si>
 </sst>
 </file>
@@ -134,16 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -753,10 +802,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,27 +1118,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.0909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.8181818181818" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.4545454545455" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.54545454545454" style="1"/>
-    <col min="9" max="9" width="8.54545454545454" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.54545454545454" style="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="19.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="27.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="23.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="11.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="11.5454545454545" customWidth="1"/>
+    <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,16 +1146,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1">
         <v>32</v>
       </c>
@@ -1114,20 +1161,11 @@
         <v>40</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="E2" s="1">
-        <v>27928</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
+      <c r="G2" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
@@ -1138,14 +1176,11 @@
         <v>325</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="E3" s="1">
-        <v>110316</v>
-      </c>
       <c r="G3" s="1">
-        <v>32</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1156,14 +1191,11 @@
         <v>2188</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>128</v>
       </c>
-      <c r="E4" s="1">
-        <v>430543</v>
-      </c>
       <c r="G4" s="1">
-        <v>64</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -1174,14 +1206,11 @@
         <v>15568</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>256</v>
       </c>
-      <c r="E5" s="1">
-        <v>1785005</v>
-      </c>
       <c r="G5" s="1">
-        <v>128</v>
+        <v>35565</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
@@ -1192,14 +1221,11 @@
         <v>140059</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>512</v>
       </c>
-      <c r="E6" s="1">
-        <v>8359920</v>
-      </c>
       <c r="G6" s="1">
-        <v>256</v>
+        <v>293934</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -1210,14 +1236,11 @@
         <v>1139062</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>1024</v>
       </c>
-      <c r="E7" s="1">
-        <v>37027523</v>
-      </c>
       <c r="G7" s="1">
-        <v>512</v>
+        <v>2415255</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -1228,18 +1251,17 @@
         <v>9196672</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="F8" s="1">
+        <v>2048</v>
+      </c>
       <c r="G8" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="7:7">
-      <c r="G9" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
+        <v>21009373</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1250,8 +1272,20 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -1264,8 +1298,20 @@
       <c r="D11" s="1">
         <v>2422</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>921</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1894</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="1">
         <v>64</v>
       </c>
@@ -1278,8 +1324,20 @@
       <c r="D12" s="1">
         <v>4352</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="F12" s="1">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1972</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3885</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="1">
         <v>128</v>
       </c>
@@ -1292,11 +1350,20 @@
       <c r="D13" s="1">
         <v>8311</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="F13" s="1">
+        <v>128</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5154</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7056</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="1">
         <v>256</v>
       </c>
@@ -1309,8 +1376,20 @@
       <c r="D14" s="1">
         <v>19282</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="F14" s="1">
+        <v>256</v>
+      </c>
+      <c r="G14" s="1">
+        <v>19854</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21452</v>
+      </c>
+      <c r="I14" s="1">
+        <v>28746</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="1">
         <v>512</v>
       </c>
@@ -1323,8 +1402,20 @@
       <c r="D15" s="1">
         <v>54636</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="F15" s="1">
+        <v>512</v>
+      </c>
+      <c r="G15" s="1">
+        <v>109412</v>
+      </c>
+      <c r="H15" s="1">
+        <v>116228</v>
+      </c>
+      <c r="I15" s="1">
+        <v>82048</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:9">
       <c r="A16" s="1">
         <v>1024</v>
       </c>
@@ -1337,8 +1428,20 @@
       <c r="D16" s="1">
         <v>137243</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="F16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1126153</v>
+      </c>
+      <c r="H16" s="1">
+        <v>244402</v>
+      </c>
+      <c r="I16" s="1">
+        <v>454512</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="1">
         <v>2048</v>
       </c>
@@ -1351,10 +1454,22 @@
       <c r="D17" s="1">
         <v>1326324</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="F17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8430835</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4428416</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2797632</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1365,8 +1480,20 @@
       <c r="D20" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -1379,8 +1506,11 @@
       <c r="D21" s="1">
         <v>1504</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="F21" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>64</v>
       </c>
@@ -1393,8 +1523,11 @@
       <c r="D22" s="1">
         <v>2308</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="F22" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>128</v>
       </c>
@@ -1407,8 +1540,11 @@
       <c r="D23" s="1">
         <v>4054</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="F23" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>256</v>
       </c>
@@ -1421,8 +1557,11 @@
       <c r="D24" s="1">
         <v>7573</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="F24" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>512</v>
       </c>
@@ -1435,8 +1574,11 @@
       <c r="D25" s="1">
         <v>21054</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="F25" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -1449,8 +1591,11 @@
       <c r="D26" s="1">
         <v>67265</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="F26" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>2048</v>
       </c>
@@ -1463,10 +1608,13 @@
       <c r="D27" s="1">
         <v>1389486</v>
       </c>
-    </row>
-    <row r="30" ht="46" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
+      <c r="F27" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="46" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -1477,8 +1625,20 @@
       <c r="D30" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:9">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -1491,8 +1651,14 @@
       <c r="D31" s="1">
         <v>1722</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31" s="1">
+        <v>32</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="1">
         <v>64</v>
       </c>
@@ -1505,8 +1671,14 @@
       <c r="D32" s="1">
         <v>2916</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="1">
+        <v>64</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:9">
       <c r="A33" s="1">
         <v>128</v>
       </c>
@@ -1519,8 +1691,14 @@
       <c r="D33" s="1">
         <v>5383</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="1">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="1">
         <v>256</v>
       </c>
@@ -1533,8 +1711,14 @@
       <c r="D34" s="1">
         <v>11714</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="1">
+        <v>256</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:9">
       <c r="A35" s="1">
         <v>512</v>
       </c>
@@ -1547,8 +1731,14 @@
       <c r="D35" s="1">
         <v>27668</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35" s="1">
+        <v>512</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:9">
       <c r="A36" s="1">
         <v>1024</v>
       </c>
@@ -1561,8 +1751,14 @@
       <c r="D36" s="1">
         <v>85605</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:9">
       <c r="A37" s="1">
         <v>2048</v>
       </c>
@@ -1575,34 +1771,144 @@
       <c r="D37" s="1">
         <v>1445745</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="F37" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:7">
+      <c r="A40" s="1">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1">
+        <v>27928</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40" s="1">
+        <v>32</v>
+      </c>
+      <c r="G40" s="1">
+        <v>30115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:7">
+      <c r="A41" s="1">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <v>110316</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="F41" s="1">
+        <v>64</v>
+      </c>
+      <c r="G41" s="1">
+        <v>110077</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:7">
+      <c r="A42" s="1">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1">
+        <v>430543</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="F42" s="1">
+        <v>128</v>
+      </c>
+      <c r="G42" s="1">
+        <v>395053</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:7">
+      <c r="A43" s="1">
+        <v>256</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1785005</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="F43" s="1">
+        <v>256</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1912973</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:7">
+      <c r="A44" s="1">
+        <v>512</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8359920</v>
+      </c>
+      <c r="F44" s="1">
+        <v>512</v>
+      </c>
+      <c r="G44" s="1">
+        <v>7383170</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:7">
+      <c r="A45" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B45" s="1">
+        <v>37027523</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G45" s="1">
+        <v>28885192</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+    </row>
+    <row r="66" customFormat="1" spans="1:10">
       <c r="A66" s="1">
         <v>32</v>
       </c>
@@ -1628,7 +1934,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" customFormat="1" spans="1:10">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -1654,7 +1960,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" customFormat="1" spans="1:10">
       <c r="A68" s="1">
         <v>128</v>
       </c>
@@ -1680,7 +1986,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" customFormat="1" spans="1:10">
       <c r="A69" s="1">
         <v>256</v>
       </c>
@@ -1706,7 +2012,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" customFormat="1" spans="1:10">
       <c r="A70" s="1">
         <v>512</v>
       </c>
@@ -1732,7 +2038,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" customFormat="1" spans="1:10">
       <c r="A71" s="1">
         <v>1024</v>
       </c>
@@ -1758,7 +2064,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" customFormat="1" spans="1:10">
       <c r="A72" s="1">
         <v>2048</v>
       </c>
@@ -1784,7 +2090,7 @@
         <v>2.787</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" customFormat="1" spans="1:10">
       <c r="A73" s="1">
         <v>4096</v>
       </c>
@@ -1810,9 +2116,76 @@
         <v>2.42</v>
       </c>
     </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>32</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>64</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>128</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>256</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>512</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -95,6 +95,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>arm静态线程</t>
     </r>
     <r>
@@ -1120,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1493,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" spans="1:9">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -1509,8 +1514,17 @@
       <c r="F21" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="G21" s="1">
+        <v>898</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1491</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="1">
         <v>64</v>
       </c>
@@ -1526,8 +1540,17 @@
       <c r="F22" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="G22" s="1">
+        <v>1026</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:9">
       <c r="A23" s="1">
         <v>128</v>
       </c>
@@ -1543,8 +1566,17 @@
       <c r="F23" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="G23" s="1">
+        <v>2465</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6181</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:9">
       <c r="A24" s="1">
         <v>256</v>
       </c>
@@ -1560,8 +1592,17 @@
       <c r="F24" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="G24" s="1">
+        <v>9257</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20293</v>
+      </c>
+      <c r="I24" s="1">
+        <v>26307</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
       <c r="A25" s="1">
         <v>512</v>
       </c>
@@ -1577,8 +1618,17 @@
       <c r="F25" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="G25" s="1">
+        <v>48754</v>
+      </c>
+      <c r="H25" s="1">
+        <v>55976</v>
+      </c>
+      <c r="I25" s="1">
+        <v>91084</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:9">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -1594,8 +1644,17 @@
       <c r="F26" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="G26" s="1">
+        <v>724775</v>
+      </c>
+      <c r="H26" s="1">
+        <v>390778</v>
+      </c>
+      <c r="I26" s="1">
+        <v>291638</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:9">
       <c r="A27" s="1">
         <v>2048</v>
       </c>
@@ -1610,6 +1669,15 @@
       </c>
       <c r="F27" s="1">
         <v>2048</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2772837</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2101476</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2032767</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
@@ -1654,9 +1722,15 @@
       <c r="F31" s="1">
         <v>32</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="1">
+        <v>570</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1508</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2715</v>
+      </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="1">
@@ -1674,9 +1748,15 @@
       <c r="F32" s="1">
         <v>64</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="1">
+        <v>1120</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2846</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4971</v>
+      </c>
     </row>
     <row r="33" customFormat="1" spans="1:9">
       <c r="A33" s="1">
@@ -1694,9 +1774,15 @@
       <c r="F33" s="1">
         <v>128</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="1">
+        <v>6078</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6889</v>
+      </c>
+      <c r="I33" s="1">
+        <v>13177</v>
+      </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
       <c r="A34" s="1">
@@ -1714,9 +1800,15 @@
       <c r="F34" s="1">
         <v>256</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="1">
+        <v>9355</v>
+      </c>
+      <c r="H34" s="1">
+        <v>15596</v>
+      </c>
+      <c r="I34" s="1">
+        <v>25942</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
       <c r="A35" s="1">
@@ -1734,9 +1826,15 @@
       <c r="F35" s="1">
         <v>512</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="1">
+        <v>138373</v>
+      </c>
+      <c r="H35" s="1">
+        <v>78746</v>
+      </c>
+      <c r="I35" s="1">
+        <v>78509</v>
+      </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
       <c r="A36" s="1">
@@ -1754,9 +1852,15 @@
       <c r="F36" s="1">
         <v>1024</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="1">
+        <v>1003221</v>
+      </c>
+      <c r="H36" s="1">
+        <v>211284</v>
+      </c>
+      <c r="I36" s="1">
+        <v>389754</v>
+      </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
       <c r="A37" s="1">
@@ -1774,9 +1878,15 @@
       <c r="F37" s="1">
         <v>2048</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="1">
+        <v>3551806</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4020581</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2638836</v>
+      </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="1" t="s">

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>x86串行</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>arm动态线程</t>
+  </si>
+  <si>
+    <t>arm neon 静+barrier</t>
   </si>
   <si>
     <t>neon arm 不对齐 -o2</t>
@@ -799,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +811,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,8 +1131,8 @@
   <sheetPr/>
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1992,30 +1998,190 @@
         <v>28885192</v>
       </c>
     </row>
+    <row r="48" spans="6:9">
+      <c r="F48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="1">
+        <v>32</v>
+      </c>
+      <c r="G49" s="3">
+        <v>730</v>
+      </c>
+      <c r="H49" s="3">
+        <v>871</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" s="1">
+        <v>64</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1049</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1548</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="1">
+        <v>128</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2193</v>
+      </c>
+      <c r="H51" s="3">
+        <v>3656</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9">
+      <c r="F52" s="1">
+        <v>256</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5666</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10950</v>
+      </c>
+      <c r="I52" s="3">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53" s="1">
+        <v>512</v>
+      </c>
+      <c r="G53" s="3">
+        <v>27517</v>
+      </c>
+      <c r="H53" s="3">
+        <v>37255</v>
+      </c>
+      <c r="I53" s="3">
+        <v>50119</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G54" s="3">
+        <v>209620</v>
+      </c>
+      <c r="H54" s="3">
+        <v>182895</v>
+      </c>
+      <c r="I54" s="3">
+        <v>175035</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9">
+      <c r="F55" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1753274</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1493037</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1057100</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="6:9">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="6:9">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="6:9">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="6:9">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="6:9">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="6:9">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
     <row r="65" customFormat="1" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:10">
@@ -2227,21 +2393,21 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3">

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>x86串行</t>
   </si>
@@ -157,9 +157,6 @@
     <t>整体优化</t>
   </si>
   <si>
-    <t>neon arm 对齐 -o2</t>
-  </si>
-  <si>
     <t>加速比</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>SSE</t>
+  </si>
+  <si>
+    <t>x86静+barrier 行划分</t>
+  </si>
+  <si>
+    <t>x86静+barrier 列划分</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2158,7 +2161,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="65" customFormat="1" spans="1:10">
+    <row r="65" customFormat="1" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -2171,20 +2174,8 @@
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:10">
+    </row>
+    <row r="66" customFormat="1" spans="1:4">
       <c r="A66" s="1">
         <v>32</v>
       </c>
@@ -2197,20 +2188,8 @@
       <c r="D66" s="1">
         <v>2</v>
       </c>
-      <c r="G66" s="1">
-        <v>32</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="J66" s="1">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:10">
+    </row>
+    <row r="67" customFormat="1" spans="1:4">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2223,20 +2202,8 @@
       <c r="D67" s="1">
         <v>2.6875</v>
       </c>
-      <c r="G67" s="1">
-        <v>64</v>
-      </c>
-      <c r="H67" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1.146</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:10">
+    </row>
+    <row r="68" customFormat="1" spans="1:4">
       <c r="A68" s="1">
         <v>128</v>
       </c>
@@ -2249,20 +2216,8 @@
       <c r="D68" s="1">
         <v>2.89</v>
       </c>
-      <c r="G68" s="1">
-        <v>128</v>
-      </c>
-      <c r="H68" s="1">
-        <v>2.77</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="J68" s="1">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:10">
+    </row>
+    <row r="69" customFormat="1" spans="1:4">
       <c r="A69" s="1">
         <v>256</v>
       </c>
@@ -2275,20 +2230,8 @@
       <c r="D69" s="1">
         <v>2.98</v>
       </c>
-      <c r="G69" s="1">
-        <v>256</v>
-      </c>
-      <c r="H69" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="J69" s="1">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:10">
+    </row>
+    <row r="70" customFormat="1" spans="1:4">
       <c r="A70" s="1">
         <v>512</v>
       </c>
@@ -2301,20 +2244,8 @@
       <c r="D70" s="1">
         <v>3.02</v>
       </c>
-      <c r="G70" s="1">
-        <v>512</v>
-      </c>
-      <c r="H70" s="1">
-        <v>3.16</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="J70" s="1">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:10">
+    </row>
+    <row r="71" customFormat="1" spans="1:4">
       <c r="A71" s="1">
         <v>1024</v>
       </c>
@@ -2327,20 +2258,8 @@
       <c r="D71" s="1">
         <v>3.25</v>
       </c>
-      <c r="G71" s="1">
-        <v>1024</v>
-      </c>
-      <c r="H71" s="1">
-        <v>3.287</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="J71" s="1">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:10">
+    </row>
+    <row r="72" customFormat="1" spans="1:4">
       <c r="A72" s="1">
         <v>2048</v>
       </c>
@@ -2353,20 +2272,8 @@
       <c r="D72" s="1">
         <v>2.845</v>
       </c>
-      <c r="G72" s="1">
-        <v>2048</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="J72" s="1">
-        <v>2.787</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:10">
+    </row>
+    <row r="73" customFormat="1" spans="1:4">
       <c r="A73" s="1">
         <v>4096</v>
       </c>
@@ -2378,36 +2285,24 @@
       </c>
       <c r="D73" s="1">
         <v>2</v>
-      </c>
-      <c r="G73" s="1">
-        <v>4096</v>
-      </c>
-      <c r="H73" s="1">
-        <v>2.45</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="J73" s="1">
-        <v>2.42</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4"/>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2458,6 +2353,230 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>32</v>
+      </c>
+      <c r="B98" s="1">
+        <v>810</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>64</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1318</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1743</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>128</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2550</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2895</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>256</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5935</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6261</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>512</v>
+      </c>
+      <c r="B102" s="1">
+        <v>21110</v>
+      </c>
+      <c r="C102" s="1">
+        <v>18328</v>
+      </c>
+      <c r="D102" s="1">
+        <v>21054</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100619</v>
+      </c>
+      <c r="C103" s="1">
+        <v>70068</v>
+      </c>
+      <c r="D103" s="1">
+        <v>67265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1514484</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1335012</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1389486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>32</v>
+      </c>
+      <c r="B107" s="1">
+        <v>746</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1116</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>64</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1624</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>128</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2665</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3171</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>256</v>
+      </c>
+      <c r="B110" s="1">
+        <v>6387</v>
+      </c>
+      <c r="C110" s="1">
+        <v>9073</v>
+      </c>
+      <c r="D110" s="1">
+        <v>20874</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>512</v>
+      </c>
+      <c r="B111" s="1">
+        <v>24142</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43848</v>
+      </c>
+      <c r="D111" s="1">
+        <v>105042</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B112" s="1">
+        <v>129353</v>
+      </c>
+      <c r="C112" s="1">
+        <v>205754</v>
+      </c>
+      <c r="D112" s="1">
+        <v>563915</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4464067</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3696505</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6063866</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>x86串行</t>
   </si>
@@ -172,7 +172,16 @@
     <t>x86静+barrier 行划分</t>
   </si>
   <si>
+    <t>arm静+barrier 行划分</t>
+  </si>
+  <si>
     <t>x86静+barrier 列划分</t>
+  </si>
+  <si>
+    <t>arm静+barrier 列划分</t>
+  </si>
+  <si>
+    <t>数据波动大，可能与随机值有关，行划分通常性能更好，尤其在数据行局部性强或向量化场景；列划分适合并行度高但每行数据小的情况。</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2354,7 +2363,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
@@ -2367,8 +2376,20 @@
       <c r="D97" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>32</v>
       </c>
@@ -2381,8 +2402,20 @@
       <c r="D98" s="1">
         <v>1504</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98" s="1">
+        <v>32</v>
+      </c>
+      <c r="G98" s="1">
+        <v>898</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1491</v>
+      </c>
+      <c r="I98" s="1">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>64</v>
       </c>
@@ -2395,8 +2428,20 @@
       <c r="D99" s="1">
         <v>2308</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99" s="1">
+        <v>64</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1026</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I99" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>128</v>
       </c>
@@ -2409,8 +2454,20 @@
       <c r="D100" s="1">
         <v>4054</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100" s="1">
+        <v>128</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2465</v>
+      </c>
+      <c r="H100" s="1">
+        <v>6181</v>
+      </c>
+      <c r="I100" s="1">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>256</v>
       </c>
@@ -2423,8 +2480,20 @@
       <c r="D101" s="1">
         <v>7573</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101" s="1">
+        <v>256</v>
+      </c>
+      <c r="G101" s="1">
+        <v>9257</v>
+      </c>
+      <c r="H101" s="1">
+        <v>20293</v>
+      </c>
+      <c r="I101" s="1">
+        <v>26307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>512</v>
       </c>
@@ -2437,8 +2506,20 @@
       <c r="D102" s="1">
         <v>21054</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102" s="1">
+        <v>512</v>
+      </c>
+      <c r="G102" s="1">
+        <v>48754</v>
+      </c>
+      <c r="H102" s="1">
+        <v>55976</v>
+      </c>
+      <c r="I102" s="1">
+        <v>91084</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>1024</v>
       </c>
@@ -2451,8 +2532,20 @@
       <c r="D103" s="1">
         <v>67265</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G103" s="1">
+        <v>724775</v>
+      </c>
+      <c r="H103" s="1">
+        <v>390778</v>
+      </c>
+      <c r="I103" s="1">
+        <v>291638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>2048</v>
       </c>
@@ -2465,10 +2558,22 @@
       <c r="D104" s="1">
         <v>1389486</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F104" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2772837</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2101476</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2032767</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -2479,8 +2584,20 @@
       <c r="D106" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1">
+        <v>4</v>
+      </c>
+      <c r="I106" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>32</v>
       </c>
@@ -2493,8 +2610,20 @@
       <c r="D107" s="1">
         <v>1589</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107" s="1">
+        <v>32</v>
+      </c>
+      <c r="G107" s="1">
+        <v>941</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1642</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>64</v>
       </c>
@@ -2507,8 +2636,20 @@
       <c r="D108" s="1">
         <v>2388</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108" s="1">
+        <v>64</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1298</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3106</v>
+      </c>
+      <c r="I108" s="1">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>128</v>
       </c>
@@ -2521,8 +2662,20 @@
       <c r="D109" s="1">
         <v>6876</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109" s="1">
+        <v>128</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5714</v>
+      </c>
+      <c r="H109" s="1">
+        <v>9772</v>
+      </c>
+      <c r="I109" s="1">
+        <v>13852</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>256</v>
       </c>
@@ -2535,8 +2688,20 @@
       <c r="D110" s="1">
         <v>20874</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110" s="1">
+        <v>256</v>
+      </c>
+      <c r="G110" s="1">
+        <v>16499</v>
+      </c>
+      <c r="H110" s="1">
+        <v>27133</v>
+      </c>
+      <c r="I110" s="1">
+        <v>38928</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>512</v>
       </c>
@@ -2549,8 +2714,20 @@
       <c r="D111" s="1">
         <v>105042</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111" s="1">
+        <v>512</v>
+      </c>
+      <c r="G111" s="1">
+        <v>155091</v>
+      </c>
+      <c r="H111" s="1">
+        <v>154033</v>
+      </c>
+      <c r="I111" s="1">
+        <v>157892</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>1024</v>
       </c>
@@ -2563,8 +2740,20 @@
       <c r="D112" s="1">
         <v>563915</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1392052</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1080389</v>
+      </c>
+      <c r="I112" s="1">
+        <v>952907</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>2048</v>
       </c>
@@ -2576,6 +2765,23 @@
       </c>
       <c r="D113" s="1">
         <v>6063866</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G113" s="1">
+        <v>10283261</v>
+      </c>
+      <c r="H113" s="1">
+        <v>8215876</v>
+      </c>
+      <c r="I113" s="1">
+        <v>7110081</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,9 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1144,7 +1141,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2011,16 +2008,16 @@
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2028,13 +2025,13 @@
       <c r="F49" s="1">
         <v>32</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>730</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <v>871</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>1357</v>
       </c>
     </row>
@@ -2042,13 +2039,13 @@
       <c r="F50" s="1">
         <v>64</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <v>1049</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <v>1548</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>4721</v>
       </c>
     </row>
@@ -2056,13 +2053,13 @@
       <c r="F51" s="1">
         <v>128</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>2193</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <v>3656</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>4953</v>
       </c>
     </row>
@@ -2070,13 +2067,13 @@
       <c r="F52" s="1">
         <v>256</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <v>5666</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <v>10950</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>19440</v>
       </c>
     </row>
@@ -2084,13 +2081,13 @@
       <c r="F53" s="1">
         <v>512</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <v>27517</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <v>37255</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <v>50119</v>
       </c>
     </row>
@@ -2098,13 +2095,13 @@
       <c r="F54" s="1">
         <v>1024</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <v>209620</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <v>182895</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <v>175035</v>
       </c>
     </row>
@@ -2112,63 +2109,63 @@
       <c r="F55" s="1">
         <v>2048</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>1753274</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <v>1493037</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <v>1057100</v>
       </c>
     </row>
     <row r="56" spans="6:9">
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="6:9">
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="6:9">
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="6:9">
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="6:9">
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="6:9">
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="6:9">
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="6:9">
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65" s="1" t="s">
@@ -2297,7 +2294,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2602,25 +2599,25 @@
         <v>32</v>
       </c>
       <c r="B107" s="1">
-        <v>746</v>
+        <v>959</v>
       </c>
       <c r="C107" s="1">
-        <v>1116</v>
+        <v>1216</v>
       </c>
       <c r="D107" s="1">
-        <v>1589</v>
+        <v>1809</v>
       </c>
       <c r="F107" s="1">
         <v>32</v>
       </c>
       <c r="G107" s="1">
-        <v>941</v>
+        <v>656</v>
       </c>
       <c r="H107" s="1">
-        <v>1642</v>
+        <v>1714</v>
       </c>
       <c r="I107" s="1">
-        <v>3403</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -2628,25 +2625,25 @@
         <v>64</v>
       </c>
       <c r="B108" s="1">
-        <v>1320</v>
+        <v>1624</v>
       </c>
       <c r="C108" s="1">
-        <v>1624</v>
+        <v>2248</v>
       </c>
       <c r="D108" s="1">
-        <v>2388</v>
+        <v>3538</v>
       </c>
       <c r="F108" s="1">
         <v>64</v>
       </c>
       <c r="G108" s="1">
-        <v>1298</v>
+        <v>1101</v>
       </c>
       <c r="H108" s="1">
-        <v>3106</v>
+        <v>3196</v>
       </c>
       <c r="I108" s="1">
-        <v>5376</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -2654,25 +2651,25 @@
         <v>128</v>
       </c>
       <c r="B109" s="1">
-        <v>2665</v>
+        <v>2697</v>
       </c>
       <c r="C109" s="1">
-        <v>3171</v>
+        <v>4125</v>
       </c>
       <c r="D109" s="1">
-        <v>6876</v>
+        <v>10455</v>
       </c>
       <c r="F109" s="1">
         <v>128</v>
       </c>
       <c r="G109" s="1">
-        <v>5714</v>
+        <v>4193</v>
       </c>
       <c r="H109" s="1">
-        <v>9772</v>
+        <v>6403</v>
       </c>
       <c r="I109" s="1">
-        <v>13852</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2680,25 +2677,25 @@
         <v>256</v>
       </c>
       <c r="B110" s="1">
-        <v>6387</v>
+        <v>7028</v>
       </c>
       <c r="C110" s="1">
-        <v>9073</v>
+        <v>13128</v>
       </c>
       <c r="D110" s="1">
-        <v>20874</v>
+        <v>34940</v>
       </c>
       <c r="F110" s="1">
         <v>256</v>
       </c>
       <c r="G110" s="1">
-        <v>16499</v>
+        <v>10842</v>
       </c>
       <c r="H110" s="1">
-        <v>27133</v>
+        <v>21898</v>
       </c>
       <c r="I110" s="1">
-        <v>38928</v>
+        <v>31758</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2706,25 +2703,25 @@
         <v>512</v>
       </c>
       <c r="B111" s="1">
-        <v>24142</v>
+        <v>33135</v>
       </c>
       <c r="C111" s="1">
-        <v>43848</v>
+        <v>57323</v>
       </c>
       <c r="D111" s="1">
-        <v>105042</v>
+        <v>136354</v>
       </c>
       <c r="F111" s="1">
         <v>512</v>
       </c>
       <c r="G111" s="1">
-        <v>155091</v>
+        <v>177638</v>
       </c>
       <c r="H111" s="1">
-        <v>154033</v>
+        <v>207603</v>
       </c>
       <c r="I111" s="1">
-        <v>157892</v>
+        <v>213125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -2732,25 +2729,25 @@
         <v>1024</v>
       </c>
       <c r="B112" s="1">
-        <v>129353</v>
+        <v>173523</v>
       </c>
       <c r="C112" s="1">
-        <v>205754</v>
+        <v>259117</v>
       </c>
       <c r="D112" s="1">
-        <v>563915</v>
+        <v>747366</v>
       </c>
       <c r="F112" s="1">
         <v>1024</v>
       </c>
       <c r="G112" s="1">
-        <v>1392052</v>
+        <v>1016153</v>
       </c>
       <c r="H112" s="1">
-        <v>1080389</v>
+        <v>1067616</v>
       </c>
       <c r="I112" s="1">
-        <v>952907</v>
+        <v>1041907</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -2758,25 +2755,25 @@
         <v>2048</v>
       </c>
       <c r="B113" s="1">
-        <v>4464067</v>
+        <v>4457559</v>
       </c>
       <c r="C113" s="1">
-        <v>3696505</v>
+        <v>4633314</v>
       </c>
       <c r="D113" s="1">
-        <v>6063866</v>
+        <v>6053202</v>
       </c>
       <c r="F113" s="1">
         <v>2048</v>
       </c>
       <c r="G113" s="1">
-        <v>10283261</v>
+        <v>10201985</v>
       </c>
       <c r="H113" s="1">
-        <v>8215876</v>
+        <v>9404831</v>
       </c>
       <c r="I113" s="1">
-        <v>7110081</v>
+        <v>8230836</v>
       </c>
     </row>
     <row r="115" spans="6:6">

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>x86串行</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>arm串行</t>
+  </si>
+  <si>
+    <t>neon</t>
   </si>
   <si>
     <t>x86静态线程+信号量同步</t>
@@ -1140,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1158,7 +1161,7 @@
     <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1175,11 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1">
         <v>32</v>
       </c>
@@ -1187,8 +1193,11 @@
       <c r="G2" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="I2" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -1202,8 +1211,11 @@
       <c r="G3" s="1">
         <v>573</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="I3" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -1217,8 +1229,11 @@
       <c r="G4" s="1">
         <v>4510</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="I4" s="1">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1232,8 +1247,11 @@
       <c r="G5" s="1">
         <v>35565</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="I5" s="1">
+        <v>27931</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -1247,8 +1265,11 @@
       <c r="G6" s="1">
         <v>293934</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="I6" s="1">
+        <v>226828</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
@@ -1262,8 +1283,11 @@
       <c r="G7" s="1">
         <v>2415255</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="I7" s="1">
+        <v>1852177</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
         <v>2048</v>
       </c>
@@ -1277,11 +1301,14 @@
       <c r="G8" s="1">
         <v>21009373</v>
       </c>
+      <c r="I8" s="1">
+        <v>14949371</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1293,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1489,7 +1516,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1501,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1697,7 +1724,7 @@
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -1709,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -1905,13 +1932,13 @@
     </row>
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="F39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2009,7 +2036,7 @@
     </row>
     <row r="48" spans="6:9">
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1">
         <v>2</v>
@@ -2169,16 +2196,16 @@
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:4">
@@ -2296,19 +2323,19 @@
     <row r="81" spans="1:3">
       <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2362,7 +2389,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
@@ -2374,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G97" s="1">
         <v>2</v>
@@ -2570,7 +2597,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -2582,7 +2609,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G106" s="1">
         <v>2</v>
@@ -2778,7 +2805,7 @@
     </row>
     <row r="115" spans="6:6">
       <c r="F115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="18350" windowHeight="6880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>x86串行</t>
   </si>
@@ -186,6 +186,15 @@
   <si>
     <t>数据波动大，可能与随机值有关，行划分通常性能更好，尤其在数据行局部性强或向量化场景；列划分适合并行度高但每行数据小的情况。</t>
   </si>
+  <si>
+    <t>openmp2</t>
+  </si>
+  <si>
+    <t>openmp4</t>
+  </si>
+  <si>
+    <t>openmp8</t>
+  </si>
 </sst>
 </file>
 
@@ -197,13 +206,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -687,147 +702,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1161,1645 +1182,1645 @@
     <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="1">
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>40</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="F2" s="1">
+      <c r="C2" s="2"/>
+      <c r="F2" s="2">
         <v>32</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>74</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="1">
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="2">
         <v>64</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>325</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1">
+      <c r="C3" s="2"/>
+      <c r="F3" s="2">
         <v>64</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>573</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>467</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2188</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1">
+      <c r="C4" s="2"/>
+      <c r="F4" s="2">
         <v>128</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>4510</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>3542</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
-      <c r="A5" s="1">
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="2">
         <v>256</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>15568</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="F5" s="1">
+      <c r="C5" s="2"/>
+      <c r="F5" s="2">
         <v>256</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>35565</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>27931</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="2">
         <v>512</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>140059</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="F6" s="1">
+      <c r="C6" s="2"/>
+      <c r="F6" s="2">
         <v>512</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>293934</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>226828</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:9">
+      <c r="A7" s="2">
         <v>1024</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1139062</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1">
+      <c r="C7" s="2"/>
+      <c r="F7" s="2">
         <v>1024</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>2415255</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1852177</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
-      <c r="A8" s="1">
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="A8" s="2">
         <v>2048</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>9196672</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="F8" s="1">
+      <c r="C8" s="2"/>
+      <c r="F8" s="2">
         <v>2048</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>21009373</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>14949371</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="1" t="s">
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="2">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>854</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1370</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>2422</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>921</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1894</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>3567</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="2">
         <v>64</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1501</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2364</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>4352</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>64</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1972</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>3885</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="A13" s="2">
         <v>128</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>3247</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>5212</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>8311</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>128</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>5154</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>7056</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>11349</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="A14" s="2">
         <v>256</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>7580</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>10212</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>19282</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>256</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>19854</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>21452</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>28746</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
-      <c r="A15" s="1">
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="2">
         <v>512</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>31468</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>29409</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>54636</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>512</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>109412</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>116228</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>82048</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="2">
         <v>1024</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>154008</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>129182</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>137243</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1024</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1126153</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>244402</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>454512</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="A17" s="2">
         <v>2048</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1703095</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1503981</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1326324</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>2048</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>8430835</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>4428416</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>2797632</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
-      <c r="A21" s="1">
+    <row r="21" s="2" customFormat="1" spans="1:9">
+      <c r="A21" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>810</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1083</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1504</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>32</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>898</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>1491</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>2839</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" spans="1:9">
+      <c r="A22" s="2">
         <v>64</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1318</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1743</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>2308</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>64</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1026</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>2625</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>4950</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" spans="1:9">
+      <c r="A23" s="2">
         <v>128</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2550</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>2895</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>4054</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>128</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>2465</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>6181</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>9334</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
-      <c r="A24" s="1">
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="2">
         <v>256</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>5935</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>6261</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>7573</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>256</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>9257</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>20293</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>26307</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="1">
+    <row r="25" s="2" customFormat="1" spans="1:9">
+      <c r="A25" s="2">
         <v>512</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>21110</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>18328</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>21054</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>512</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>48754</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>55976</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>91084</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:9">
-      <c r="A26" s="1">
+    <row r="26" s="2" customFormat="1" spans="1:9">
+      <c r="A26" s="2">
         <v>1024</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>100619</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>70068</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>67265</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1024</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>724775</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>390778</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>291638</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:9">
-      <c r="A27" s="1">
+    <row r="27" s="2" customFormat="1" spans="1:9">
+      <c r="A27" s="2">
         <v>2048</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1514484</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>1335012</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>1389486</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>2048</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>2772837</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>2101476</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>2032767</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>795</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>971</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>1722</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>32</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>570</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>1508</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>2715</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>64</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>1271</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>1356</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>2916</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>64</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1120</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>2846</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>4971</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>128</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>2418</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>2643</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>5383</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>128</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>6078</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>6889</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="2">
         <v>13177</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>256</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>6357</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>5594</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>11714</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>256</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>9355</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>15596</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="2">
         <v>25942</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>512</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>22447</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>17466</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>27668</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>512</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>138373</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>78746</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="2">
         <v>78509</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>1024</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>100989</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>71229</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>85605</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>1024</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <v>1003221</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>211284</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="2">
         <v>389754</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>2048</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>1656823</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>1440250</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>1445745</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>2048</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <v>3551806</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>4020581</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="2">
         <v>2638836</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" customFormat="1" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>27928</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>32</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>30115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>64</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>110316</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>64</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>110077</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:7">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>128</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>430543</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>128</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>395053</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>256</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>1785005</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>256</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <v>1912973</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:7">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>512</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>8359920</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>512</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>7383170</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:7">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>1024</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>37027523</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>1024</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>28885192</v>
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="6:9">
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>32</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>730</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>871</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>1357</v>
       </c>
     </row>
     <row r="50" spans="6:9">
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>64</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>1049</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>1548</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>4721</v>
       </c>
     </row>
     <row r="51" spans="6:9">
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>128</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>2193</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>3656</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>4953</v>
       </c>
     </row>
     <row r="52" spans="6:9">
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>256</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>5666</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>10950</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>19440</v>
       </c>
     </row>
     <row r="53" spans="6:9">
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>512</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>27517</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <v>37255</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="2">
         <v>50119</v>
       </c>
     </row>
     <row r="54" spans="6:9">
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>1024</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>209620</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <v>182895</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="2">
         <v>175035</v>
       </c>
     </row>
     <row r="55" spans="6:9">
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>2048</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>1753274</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>1493037</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="2">
         <v>1057100</v>
       </c>
     </row>
     <row r="56" spans="6:9">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="6:9">
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="6:9">
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="6:9">
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="6:9">
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="6:9">
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="6:9">
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="6:9">
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:4">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>32</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>1.71</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>2.46</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>1.04</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>2.6875</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:4">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>128</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>2.73</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>1.03</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>2.89</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>256</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>2.88</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>1.03</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>2.98</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>512</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>2.98</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>1.007</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>3.02</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>1024</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>3.226</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>1.03</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>3.25</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>2048</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>2.83</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>1.01</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>2.845</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>4096</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>2.85</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>0.86</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>32</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>64</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>128</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>256</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>512</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>1024</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>2048</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>2</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>4</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>8</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="2">
         <v>2</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="2">
         <v>4</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>32</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>810</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>1083</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>1504</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>32</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="2">
         <v>898</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="2">
         <v>1491</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="2">
         <v>2839</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>64</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>1318</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>1743</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>2308</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
         <v>64</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="2">
         <v>1026</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="2">
         <v>2625</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="2">
         <v>4950</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>128</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>2550</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>2895</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>4054</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
         <v>128</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="2">
         <v>2465</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="2">
         <v>6181</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="2">
         <v>9334</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>256</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>5935</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>6261</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>7573</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>256</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="2">
         <v>9257</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="2">
         <v>20293</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="2">
         <v>26307</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>512</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>21110</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>18328</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>21054</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>512</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="2">
         <v>48754</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="2">
         <v>55976</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="2">
         <v>91084</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>1024</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>100619</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>70068</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>67265</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>1024</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="2">
         <v>724775</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="2">
         <v>390778</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="2">
         <v>291638</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>2048</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>1514484</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>1335012</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>1389486</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>2048</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="2">
         <v>2772837</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="2">
         <v>2101476</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="2">
         <v>2032767</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>2</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>4</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>8</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="2">
         <v>2</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="2">
         <v>4</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>32</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>959</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>1216</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>1809</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>32</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="2">
         <v>656</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="2">
         <v>1714</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="2">
         <v>2487</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>64</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>1624</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>2248</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>3538</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>64</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="2">
         <v>1101</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="2">
         <v>3196</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="2">
         <v>4813</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>128</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>2697</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>4125</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>10455</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>128</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="2">
         <v>4193</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="2">
         <v>6403</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="2">
         <v>11874</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>256</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>7028</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>13128</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>34940</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="2">
         <v>256</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="2">
         <v>10842</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="2">
         <v>21898</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="2">
         <v>31758</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>512</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>33135</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>57323</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>136354</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="2">
         <v>512</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="2">
         <v>177638</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="2">
         <v>207603</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="2">
         <v>213125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>1024</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>173523</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>259117</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>747366</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>1024</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="2">
         <v>1016153</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="2">
         <v>1067616</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="2">
         <v>1041907</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>2048</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>4457559</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>4633314</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>6053202</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>2048</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="2">
         <v>10201985</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="2">
         <v>9404831</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="2">
         <v>8230836</v>
       </c>
     </row>
@@ -2821,14 +2842,250 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9090909090909" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="8.27272727272727" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2">
+        <v>325</v>
+      </c>
+      <c r="H3" s="2">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2188</v>
+      </c>
+      <c r="H4" s="2">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15568</v>
+      </c>
+      <c r="H5" s="2">
+        <v>256</v>
+      </c>
+      <c r="I5" s="2">
+        <v>35565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2">
+        <v>140059</v>
+      </c>
+      <c r="H6" s="2">
+        <v>512</v>
+      </c>
+      <c r="I6" s="2">
+        <v>293934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1139062</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2415255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9196672</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2048</v>
+      </c>
+      <c r="I8" s="2">
+        <v>21009373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1694</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3193</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3451</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6010</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5992</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11189</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>256</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12155</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23393</v>
+      </c>
+      <c r="D14" s="1">
+        <v>46459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>512</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32497</v>
+      </c>
+      <c r="C15" s="1">
+        <v>46415</v>
+      </c>
+      <c r="D15" s="1">
+        <v>88968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="2">
+        <v>123953</v>
+      </c>
+      <c r="C16" s="1">
+        <v>120592</v>
+      </c>
+      <c r="D16" s="1">
+        <v>193422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1637803</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1500110</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1672463</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="18350" windowHeight="6880" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pthread" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenMP" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>x86串行</t>
   </si>
@@ -187,6 +187,9 @@
     <t>数据波动大，可能与随机值有关，行划分通常性能更好，尤其在数据行局部性强或向量化场景；列划分适合并行度高但每行数据小的情况。</t>
   </si>
   <si>
+    <t>x86</t>
+  </si>
+  <si>
     <t>openmp2</t>
   </si>
   <si>
@@ -194,6 +197,18 @@
   </si>
   <si>
     <t>openmp8</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>guided</t>
   </si>
 </sst>
 </file>
@@ -832,12 +847,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1182,1645 +1194,1645 @@
     <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2">
+      <c r="C2" s="1"/>
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>74</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>325</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2">
+      <c r="C3" s="1"/>
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>573</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>467</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2188</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="2">
+      <c r="C4" s="1"/>
+      <c r="F4" s="1">
         <v>128</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>4510</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>3542</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15568</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="F5" s="2">
+      <c r="C5" s="1"/>
+      <c r="F5" s="1">
         <v>256</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>35565</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>27931</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140059</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2">
+      <c r="C6" s="1"/>
+      <c r="F6" s="1">
         <v>512</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>293934</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>226828</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="2">
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139062</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1">
         <v>1024</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2415255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1852177</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="2">
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196672</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2">
+      <c r="C8" s="1"/>
+      <c r="F8" s="1">
         <v>2048</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>21009373</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>14949371</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="2" t="s">
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="2">
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>854</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1370</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2422</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>32</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>921</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1894</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>3567</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="2">
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="1">
         <v>64</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1501</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2364</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4352</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>64</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1972</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>3885</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="2">
+    <row r="13" s="1" customFormat="1" spans="1:9">
+      <c r="A13" s="1">
         <v>128</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3247</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>5212</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>8311</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>128</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>5154</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>7056</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>11349</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="2">
+    <row r="14" s="1" customFormat="1" spans="1:9">
+      <c r="A14" s="1">
         <v>256</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>7580</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>10212</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>19282</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>256</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>19854</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>21452</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>28746</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:9">
-      <c r="A15" s="2">
+    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="A15" s="1">
         <v>512</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>31468</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>29409</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>54636</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>512</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>109412</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>116228</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>82048</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:9">
-      <c r="A16" s="2">
+    <row r="16" s="1" customFormat="1" spans="1:9">
+      <c r="A16" s="1">
         <v>1024</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>154008</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>129182</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>137243</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1024</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1126153</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>244402</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>454512</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:9">
-      <c r="A17" s="2">
+    <row r="17" s="1" customFormat="1" spans="1:9">
+      <c r="A17" s="1">
         <v>2048</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1703095</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1503981</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1326324</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>2048</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>8430835</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>4428416</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2797632</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:9">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:9">
-      <c r="A21" s="2">
+    <row r="21" s="1" customFormat="1" spans="1:9">
+      <c r="A21" s="1">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>810</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1083</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1504</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>32</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>898</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>1491</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>2839</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:9">
-      <c r="A22" s="2">
+    <row r="22" s="1" customFormat="1" spans="1:9">
+      <c r="A22" s="1">
         <v>64</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1318</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1743</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>2308</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>64</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>1026</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>2625</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>4950</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:9">
-      <c r="A23" s="2">
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="1">
         <v>128</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2550</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2895</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>4054</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>128</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2465</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>6181</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>9334</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
-      <c r="A24" s="2">
+    <row r="24" s="1" customFormat="1" spans="1:9">
+      <c r="A24" s="1">
         <v>256</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>5935</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>6261</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>7573</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>256</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>9257</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>20293</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>26307</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
-      <c r="A25" s="2">
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1">
         <v>512</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>21110</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>18328</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>21054</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>512</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>48754</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>55976</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>91084</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="2">
+    <row r="26" s="1" customFormat="1" spans="1:9">
+      <c r="A26" s="1">
         <v>1024</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>100619</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>70068</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>67265</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1024</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>724775</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>390778</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>291638</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:9">
-      <c r="A27" s="2">
+    <row r="27" s="1" customFormat="1" spans="1:9">
+      <c r="A27" s="1">
         <v>2048</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1514484</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1335012</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>1389486</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>2048</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>2772837</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>2101476</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>2032767</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>795</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>971</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>1722</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>32</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>570</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>1508</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>2715</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>64</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1271</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1356</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2916</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>64</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>1120</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>2846</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>4971</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>128</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2418</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2643</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>5383</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>128</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>6078</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>6889</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>13177</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>256</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>6357</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>5594</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>11714</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>256</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>9355</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>15596</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>25942</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>512</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>22447</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>17466</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>27668</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>512</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>138373</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>78746</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>78509</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>1024</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>100989</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>71229</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>85605</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>1024</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>1003221</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>211284</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>389754</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>2048</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1656823</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1440250</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>1445745</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2048</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>3551806</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>4020581</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>2638836</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="1" spans="1:7">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>27928</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>32</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>30115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>64</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>110316</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>64</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>110077</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>128</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>430543</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>128</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>395053</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:7">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>256</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>1785005</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>256</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>1912973</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:7">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>512</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>8359920</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>512</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>7383170</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:7">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>1024</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>37027523</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>1024</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>28885192</v>
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>4</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="6:9">
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>32</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>730</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>871</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>1357</v>
       </c>
     </row>
     <row r="50" spans="6:9">
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>64</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>1049</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>1548</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>4721</v>
       </c>
     </row>
     <row r="51" spans="6:9">
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>128</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>2193</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>3656</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>4953</v>
       </c>
     </row>
     <row r="52" spans="6:9">
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>256</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>5666</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>10950</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>19440</v>
       </c>
     </row>
     <row r="53" spans="6:9">
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>512</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>27517</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>37255</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>50119</v>
       </c>
     </row>
     <row r="54" spans="6:9">
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1024</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>209620</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>182895</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>175035</v>
       </c>
     </row>
     <row r="55" spans="6:9">
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>2048</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>1753274</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>1493037</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>1057100</v>
       </c>
     </row>
     <row r="56" spans="6:9">
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="6:9">
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="6:9">
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="6:9">
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="6:9">
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="6:9">
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="6:9">
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="6:9">
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:4">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>32</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>1.71</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>2.46</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>1.04</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>2.6875</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>128</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>2.73</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>1.03</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>2.89</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>256</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>2.88</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>1.03</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>2.98</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>512</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>2.98</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>1.007</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>3.02</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>1024</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>3.226</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>1.03</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>3.25</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>2048</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>2.83</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>1.01</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>2.845</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>4096</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>2.85</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>0.86</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>32</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>64</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>128</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>256</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>512</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>1024</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>2048</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>2</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>4</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>8</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="1">
         <v>2</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>4</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>32</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>810</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>1083</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>1504</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>32</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="1">
         <v>898</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="1">
         <v>1491</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="1">
         <v>2839</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>64</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>1318</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>1743</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>2308</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>64</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="1">
         <v>1026</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="1">
         <v>2625</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="1">
         <v>4950</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>128</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>2550</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>2895</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>4054</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>128</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="1">
         <v>2465</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="1">
         <v>6181</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="1">
         <v>9334</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>256</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>5935</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>6261</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>7573</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>256</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="1">
         <v>9257</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="1">
         <v>20293</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="1">
         <v>26307</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>512</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>21110</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>18328</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>21054</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>512</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="1">
         <v>48754</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="1">
         <v>55976</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="1">
         <v>91084</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>1024</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>100619</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <v>70068</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>67265</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>1024</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="1">
         <v>724775</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="1">
         <v>390778</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="1">
         <v>291638</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>2048</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>1514484</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="1">
         <v>1335012</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>1389486</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>2048</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="1">
         <v>2772837</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="1">
         <v>2101476</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="1">
         <v>2032767</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>2</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <v>4</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>8</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="1">
         <v>2</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>4</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>32</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>959</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <v>1216</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>1809</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <v>32</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="1">
         <v>656</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="1">
         <v>1714</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="1">
         <v>2487</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>64</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>1624</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>2248</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>3538</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <v>64</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="1">
         <v>1101</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="1">
         <v>3196</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="1">
         <v>4813</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>128</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>2697</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <v>4125</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>10455</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <v>128</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="1">
         <v>4193</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="1">
         <v>6403</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="1">
         <v>11874</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>256</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>7028</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>13128</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>34940</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>256</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="1">
         <v>10842</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>21898</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="1">
         <v>31758</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>512</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>33135</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>57323</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>136354</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>512</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="1">
         <v>177638</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="1">
         <v>207603</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="1">
         <v>213125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>1024</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>173523</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="1">
         <v>259117</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <v>747366</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>1024</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="1">
         <v>1016153</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="1">
         <v>1067616</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="1">
         <v>1041907</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>2048</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>4457559</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="1">
         <v>4633314</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>6053202</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>2048</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="1">
         <v>10201985</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="1">
         <v>9404831</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="1">
         <v>8230836</v>
       </c>
     </row>
@@ -2842,156 +2854,169 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.9090909090909" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="8.27272727272727" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>32</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>325</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>64</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2188</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>128</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>4510</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15568</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>256</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>35565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140059</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>512</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>293934</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139062</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1024</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2415255</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196672</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2048</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>21009373</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1694</v>
       </c>
       <c r="C11" s="1">
@@ -3000,12 +3025,24 @@
       <c r="D11" s="1">
         <v>5945</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="G11" s="1">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1">
+        <v>239</v>
+      </c>
+      <c r="I11" s="1">
+        <v>394</v>
+      </c>
+      <c r="J11" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
         <v>64</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3451</v>
       </c>
       <c r="C12" s="1">
@@ -3014,12 +3051,24 @@
       <c r="D12" s="1">
         <v>11808</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="G12" s="1">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
+        <v>497</v>
+      </c>
+      <c r="I12" s="1">
+        <v>754</v>
+      </c>
+      <c r="J12" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
         <v>128</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>5992</v>
       </c>
       <c r="C13" s="1">
@@ -3028,12 +3077,24 @@
       <c r="D13" s="1">
         <v>22320</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="G13" s="1">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2529</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2204</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
         <v>256</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12155</v>
       </c>
       <c r="C14" s="1">
@@ -3042,12 +3103,24 @@
       <c r="D14" s="1">
         <v>46459</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="G14" s="1">
+        <v>256</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19199</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11164</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
         <v>512</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>32497</v>
       </c>
       <c r="C15" s="1">
@@ -3056,12 +3129,24 @@
       <c r="D15" s="1">
         <v>88968</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="G15" s="1">
+        <v>512</v>
+      </c>
+      <c r="H15" s="1">
+        <v>145379</v>
+      </c>
+      <c r="I15" s="1">
+        <v>75069</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
         <v>1024</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>123953</v>
       </c>
       <c r="C16" s="1">
@@ -3070,12 +3155,24 @@
       <c r="D16" s="1">
         <v>193422</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="G16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1156866</v>
+      </c>
+      <c r="I16" s="1">
+        <v>580655</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1017428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
         <v>2048</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1637803</v>
       </c>
       <c r="C17" s="1">
@@ -3083,6 +3180,543 @@
       </c>
       <c r="D17" s="1">
         <v>1672463</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9418961</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4577917</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2385961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>256</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>512</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="1">
+        <v>302546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2385961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1">
+        <v>64</v>
+      </c>
+      <c r="H30" s="1">
+        <v>128</v>
+      </c>
+      <c r="I30" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>207</v>
+      </c>
+      <c r="C31" s="1">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1">
+        <v>208</v>
+      </c>
+      <c r="E31" s="1">
+        <v>250</v>
+      </c>
+      <c r="F31" s="1">
+        <v>266</v>
+      </c>
+      <c r="G31" s="1">
+        <v>286</v>
+      </c>
+      <c r="H31" s="1">
+        <v>253</v>
+      </c>
+      <c r="I31" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>626</v>
+      </c>
+      <c r="C32" s="1">
+        <v>556</v>
+      </c>
+      <c r="D32" s="1">
+        <v>606</v>
+      </c>
+      <c r="E32" s="1">
+        <v>742</v>
+      </c>
+      <c r="F32" s="1">
+        <v>963</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1185</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1263</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1895</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1522</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1574</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2751</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4263</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5942</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14195</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11854</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11850</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12972</v>
+      </c>
+      <c r="F34" s="1">
+        <v>16145</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25332</v>
+      </c>
+      <c r="H34" s="1">
+        <v>41154</v>
+      </c>
+      <c r="I34" s="1">
+        <v>55678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>512</v>
+      </c>
+      <c r="B35" s="1">
+        <v>65271</v>
+      </c>
+      <c r="C35" s="1">
+        <v>59207</v>
+      </c>
+      <c r="D35" s="1">
+        <v>59481</v>
+      </c>
+      <c r="E35" s="1">
+        <v>63110</v>
+      </c>
+      <c r="F35" s="1">
+        <v>72262</v>
+      </c>
+      <c r="G35" s="1">
+        <v>98607</v>
+      </c>
+      <c r="H35" s="1">
+        <v>190380</v>
+      </c>
+      <c r="I35" s="1">
+        <v>309181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B36" s="1">
+        <v>438679</v>
+      </c>
+      <c r="C36" s="1">
+        <v>416399</v>
+      </c>
+      <c r="D36" s="1">
+        <v>423255</v>
+      </c>
+      <c r="E36" s="1">
+        <v>409829</v>
+      </c>
+      <c r="F36" s="1">
+        <v>452732</v>
+      </c>
+      <c r="G36" s="1">
+        <v>524854</v>
+      </c>
+      <c r="H36" s="1">
+        <v>787350</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1258939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3359415</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3193975</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3292164</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3285854</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3409441</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3668759</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4381140</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5491943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1">
+        <v>64</v>
+      </c>
+      <c r="H39" s="1">
+        <v>128</v>
+      </c>
+      <c r="I39" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1">
+        <v>215</v>
+      </c>
+      <c r="C40" s="1">
+        <v>182</v>
+      </c>
+      <c r="D40" s="1">
+        <v>194</v>
+      </c>
+      <c r="E40" s="1">
+        <v>227</v>
+      </c>
+      <c r="F40" s="1">
+        <v>243</v>
+      </c>
+      <c r="G40" s="1">
+        <v>241</v>
+      </c>
+      <c r="H40" s="1">
+        <v>259</v>
+      </c>
+      <c r="I40" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <v>577</v>
+      </c>
+      <c r="C41" s="1">
+        <v>524</v>
+      </c>
+      <c r="D41" s="1">
+        <v>571</v>
+      </c>
+      <c r="E41" s="1">
+        <v>698</v>
+      </c>
+      <c r="F41" s="1">
+        <v>874</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1092</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1057</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1587</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1478</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1567</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1765</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2649</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4145</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5706</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>256</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11937</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11148</v>
+      </c>
+      <c r="D43" s="1">
+        <v>12088</v>
+      </c>
+      <c r="E43" s="1">
+        <v>13374</v>
+      </c>
+      <c r="F43" s="1">
+        <v>17150</v>
+      </c>
+      <c r="G43" s="1">
+        <v>27353</v>
+      </c>
+      <c r="H43" s="1">
+        <v>49558</v>
+      </c>
+      <c r="I43" s="1">
+        <v>78497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>512</v>
+      </c>
+      <c r="B44" s="1">
+        <v>59456</v>
+      </c>
+      <c r="C44" s="1">
+        <v>59976</v>
+      </c>
+      <c r="D44" s="1">
+        <v>59405</v>
+      </c>
+      <c r="E44" s="1">
+        <v>62616</v>
+      </c>
+      <c r="F44" s="1">
+        <v>72836</v>
+      </c>
+      <c r="G44" s="1">
+        <v>98094</v>
+      </c>
+      <c r="H44" s="1">
+        <v>189318</v>
+      </c>
+      <c r="I44" s="1">
+        <v>309131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B45" s="1">
+        <v>393302</v>
+      </c>
+      <c r="C45" s="1">
+        <v>397529</v>
+      </c>
+      <c r="D45" s="1">
+        <v>397337</v>
+      </c>
+      <c r="E45" s="1">
+        <v>465199</v>
+      </c>
+      <c r="F45" s="1">
+        <v>481438</v>
+      </c>
+      <c r="G45" s="1">
+        <v>519773</v>
+      </c>
+      <c r="H45" s="1">
+        <v>684336</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1325133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3300538</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3349214</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3378662</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3983277</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4466950</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4632295</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5162045</v>
+      </c>
+      <c r="I46" s="1">
+        <v>6081712</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>x86串行</t>
   </si>
@@ -148,30 +148,6 @@
     <t>arm neon 静+barrier</t>
   </si>
   <si>
-    <t>neon arm 不对齐 -o2</t>
-  </si>
-  <si>
-    <t>优化消去</t>
-  </si>
-  <si>
-    <t>优化回代</t>
-  </si>
-  <si>
-    <t>整体优化</t>
-  </si>
-  <si>
-    <t>加速比</t>
-  </si>
-  <si>
-    <t>问题规模</t>
-  </si>
-  <si>
-    <t>AVX</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
     <t>x86静+barrier 行划分</t>
   </si>
   <si>
@@ -187,6 +163,12 @@
     <t>数据波动大，可能与随机值有关，行划分通常性能更好，尤其在数据行局部性强或向量化场景；列划分适合并行度高但每行数据小的情况。</t>
   </si>
   <si>
+    <t>avx</t>
+  </si>
+  <si>
+    <t>sse</t>
+  </si>
+  <si>
     <t>x86</t>
   </si>
   <si>
@@ -200,6 +182,12 @@
   </si>
   <si>
     <t>arm</t>
+  </si>
+  <si>
+    <t>avx_omp</t>
+  </si>
+  <si>
+    <t>sse_omp</t>
   </si>
   <si>
     <t>static</t>
@@ -221,7 +209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +227,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -717,137 +698,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,9 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2203,648 +2181,458 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="6:9">
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="6:9">
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="6:9">
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="6:9">
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="65" customFormat="1" spans="1:4">
-      <c r="A65" s="1" t="s">
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1">
+        <v>810</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1504</v>
+      </c>
+      <c r="F62" s="1">
+        <v>32</v>
+      </c>
+      <c r="G62" s="1">
+        <v>898</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1491</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1318</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1743</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2308</v>
+      </c>
+      <c r="F63" s="1">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1026</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2550</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2895</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4054</v>
+      </c>
+      <c r="F64" s="1">
+        <v>128</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2465</v>
+      </c>
+      <c r="H64" s="1">
+        <v>6181</v>
+      </c>
+      <c r="I64" s="1">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
+      <c r="A65" s="1">
+        <v>256</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5935</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6261</v>
+      </c>
+      <c r="D65" s="1">
+        <v>7573</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" s="1">
+        <v>256</v>
+      </c>
+      <c r="G65" s="1">
+        <v>9257</v>
+      </c>
+      <c r="H65" s="1">
+        <v>20293</v>
+      </c>
+      <c r="I65" s="1">
+        <v>26307</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:9">
+      <c r="A66" s="1">
+        <v>512</v>
+      </c>
+      <c r="B66" s="1">
+        <v>21110</v>
+      </c>
+      <c r="C66" s="1">
+        <v>18328</v>
+      </c>
+      <c r="D66" s="1">
+        <v>21054</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="1">
+        <v>512</v>
+      </c>
+      <c r="G66" s="1">
+        <v>48754</v>
+      </c>
+      <c r="H66" s="1">
+        <v>55976</v>
+      </c>
+      <c r="I66" s="1">
+        <v>91084</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:9">
+      <c r="A67" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B67" s="1">
+        <v>100619</v>
+      </c>
+      <c r="C67" s="1">
+        <v>70068</v>
+      </c>
+      <c r="D67" s="1">
+        <v>67265</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G67" s="1">
+        <v>724775</v>
+      </c>
+      <c r="H67" s="1">
+        <v>390778</v>
+      </c>
+      <c r="I67" s="1">
+        <v>291638</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:9">
+      <c r="A68" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1514484</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1335012</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1389486</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2772837</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2101476</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2032767</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1" spans="1:9">
+      <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:4">
-      <c r="A66" s="1">
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:9">
+      <c r="A71" s="1">
         <v>32</v>
       </c>
-      <c r="B66" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:4">
-      <c r="A67" s="1">
+      <c r="B71" s="1">
+        <v>959</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1216</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1809</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="1">
+        <v>32</v>
+      </c>
+      <c r="G71" s="1">
+        <v>656</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1714</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:9">
+      <c r="A72" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2.6875</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:4">
-      <c r="A68" s="1">
+      <c r="B72" s="1">
+        <v>1624</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3538</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="1">
+        <v>64</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1101</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3196</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:9">
+      <c r="A73" s="1">
         <v>128</v>
       </c>
-      <c r="B68" s="1">
-        <v>2.73</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:4">
-      <c r="A69" s="1">
+      <c r="B73" s="1">
+        <v>2697</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4125</v>
+      </c>
+      <c r="D73" s="1">
+        <v>10455</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="1">
+        <v>128</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4193</v>
+      </c>
+      <c r="H73" s="1">
+        <v>6403</v>
+      </c>
+      <c r="I73" s="1">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
         <v>256</v>
       </c>
-      <c r="B69" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:4">
-      <c r="A70" s="1">
+      <c r="B74" s="1">
+        <v>7028</v>
+      </c>
+      <c r="C74" s="1">
+        <v>13128</v>
+      </c>
+      <c r="D74" s="1">
+        <v>34940</v>
+      </c>
+      <c r="F74" s="1">
+        <v>256</v>
+      </c>
+      <c r="G74" s="1">
+        <v>10842</v>
+      </c>
+      <c r="H74" s="1">
+        <v>21898</v>
+      </c>
+      <c r="I74" s="1">
+        <v>31758</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
         <v>512</v>
       </c>
-      <c r="B70" s="1">
-        <v>2.98</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.007</v>
-      </c>
-      <c r="D70" s="1">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:4">
-      <c r="A71" s="1">
+      <c r="B75" s="1">
+        <v>33135</v>
+      </c>
+      <c r="C75" s="1">
+        <v>57323</v>
+      </c>
+      <c r="D75" s="1">
+        <v>136354</v>
+      </c>
+      <c r="F75" s="1">
+        <v>512</v>
+      </c>
+      <c r="G75" s="1">
+        <v>177638</v>
+      </c>
+      <c r="H75" s="1">
+        <v>207603</v>
+      </c>
+      <c r="I75" s="1">
+        <v>213125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
         <v>1024</v>
       </c>
-      <c r="B71" s="1">
-        <v>3.226</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="D71" s="1">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="1">
+      <c r="B76" s="1">
+        <v>173523</v>
+      </c>
+      <c r="C76" s="1">
+        <v>259117</v>
+      </c>
+      <c r="D76" s="1">
+        <v>747366</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1016153</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1067616</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1041907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
         <v>2048</v>
       </c>
-      <c r="B72" s="1">
-        <v>2.83</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2.845</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:4">
-      <c r="A73" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1" t="s">
+      <c r="B77" s="1">
+        <v>4457559</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4633314</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6053202</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G77" s="1">
+        <v>10201985</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9404831</v>
+      </c>
+      <c r="I77" s="1">
+        <v>8230836</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>32</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>64</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>128</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>256</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>512</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="1">
-        <v>2</v>
-      </c>
-      <c r="C97" s="1">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1">
-        <v>8</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-      <c r="H97" s="1">
-        <v>4</v>
-      </c>
-      <c r="I97" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
-        <v>32</v>
-      </c>
-      <c r="B98" s="1">
-        <v>810</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1083</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1504</v>
-      </c>
-      <c r="F98" s="1">
-        <v>32</v>
-      </c>
-      <c r="G98" s="1">
-        <v>898</v>
-      </c>
-      <c r="H98" s="1">
-        <v>1491</v>
-      </c>
-      <c r="I98" s="1">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
-        <v>64</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1318</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1743</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2308</v>
-      </c>
-      <c r="F99" s="1">
-        <v>64</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1026</v>
-      </c>
-      <c r="H99" s="1">
-        <v>2625</v>
-      </c>
-      <c r="I99" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1">
-        <v>128</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2550</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2895</v>
-      </c>
-      <c r="D100" s="1">
-        <v>4054</v>
-      </c>
-      <c r="F100" s="1">
-        <v>128</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2465</v>
-      </c>
-      <c r="H100" s="1">
-        <v>6181</v>
-      </c>
-      <c r="I100" s="1">
-        <v>9334</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1">
-        <v>256</v>
-      </c>
-      <c r="B101" s="1">
-        <v>5935</v>
-      </c>
-      <c r="C101" s="1">
-        <v>6261</v>
-      </c>
-      <c r="D101" s="1">
-        <v>7573</v>
-      </c>
-      <c r="F101" s="1">
-        <v>256</v>
-      </c>
-      <c r="G101" s="1">
-        <v>9257</v>
-      </c>
-      <c r="H101" s="1">
-        <v>20293</v>
-      </c>
-      <c r="I101" s="1">
-        <v>26307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1">
-        <v>512</v>
-      </c>
-      <c r="B102" s="1">
-        <v>21110</v>
-      </c>
-      <c r="C102" s="1">
-        <v>18328</v>
-      </c>
-      <c r="D102" s="1">
-        <v>21054</v>
-      </c>
-      <c r="F102" s="1">
-        <v>512</v>
-      </c>
-      <c r="G102" s="1">
-        <v>48754</v>
-      </c>
-      <c r="H102" s="1">
-        <v>55976</v>
-      </c>
-      <c r="I102" s="1">
-        <v>91084</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B103" s="1">
-        <v>100619</v>
-      </c>
-      <c r="C103" s="1">
-        <v>70068</v>
-      </c>
-      <c r="D103" s="1">
-        <v>67265</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1024</v>
-      </c>
-      <c r="G103" s="1">
-        <v>724775</v>
-      </c>
-      <c r="H103" s="1">
-        <v>390778</v>
-      </c>
-      <c r="I103" s="1">
-        <v>291638</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1514484</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1335012</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1389486</v>
-      </c>
-      <c r="F104" s="1">
-        <v>2048</v>
-      </c>
-      <c r="G104" s="1">
-        <v>2772837</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2101476</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2032767</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4</v>
-      </c>
-      <c r="D106" s="1">
-        <v>8</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="1">
-        <v>2</v>
-      </c>
-      <c r="H106" s="1">
-        <v>4</v>
-      </c>
-      <c r="I106" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1">
-        <v>32</v>
-      </c>
-      <c r="B107" s="1">
-        <v>959</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1216</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1809</v>
-      </c>
-      <c r="F107" s="1">
-        <v>32</v>
-      </c>
-      <c r="G107" s="1">
-        <v>656</v>
-      </c>
-      <c r="H107" s="1">
-        <v>1714</v>
-      </c>
-      <c r="I107" s="1">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1">
-        <v>64</v>
-      </c>
-      <c r="B108" s="1">
-        <v>1624</v>
-      </c>
-      <c r="C108" s="1">
-        <v>2248</v>
-      </c>
-      <c r="D108" s="1">
-        <v>3538</v>
-      </c>
-      <c r="F108" s="1">
-        <v>64</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1101</v>
-      </c>
-      <c r="H108" s="1">
-        <v>3196</v>
-      </c>
-      <c r="I108" s="1">
-        <v>4813</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1">
-        <v>128</v>
-      </c>
-      <c r="B109" s="1">
-        <v>2697</v>
-      </c>
-      <c r="C109" s="1">
-        <v>4125</v>
-      </c>
-      <c r="D109" s="1">
-        <v>10455</v>
-      </c>
-      <c r="F109" s="1">
-        <v>128</v>
-      </c>
-      <c r="G109" s="1">
-        <v>4193</v>
-      </c>
-      <c r="H109" s="1">
-        <v>6403</v>
-      </c>
-      <c r="I109" s="1">
-        <v>11874</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>256</v>
-      </c>
-      <c r="B110" s="1">
-        <v>7028</v>
-      </c>
-      <c r="C110" s="1">
-        <v>13128</v>
-      </c>
-      <c r="D110" s="1">
-        <v>34940</v>
-      </c>
-      <c r="F110" s="1">
-        <v>256</v>
-      </c>
-      <c r="G110" s="1">
-        <v>10842</v>
-      </c>
-      <c r="H110" s="1">
-        <v>21898</v>
-      </c>
-      <c r="I110" s="1">
-        <v>31758</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1">
-        <v>512</v>
-      </c>
-      <c r="B111" s="1">
-        <v>33135</v>
-      </c>
-      <c r="C111" s="1">
-        <v>57323</v>
-      </c>
-      <c r="D111" s="1">
-        <v>136354</v>
-      </c>
-      <c r="F111" s="1">
-        <v>512</v>
-      </c>
-      <c r="G111" s="1">
-        <v>177638</v>
-      </c>
-      <c r="H111" s="1">
-        <v>207603</v>
-      </c>
-      <c r="I111" s="1">
-        <v>213125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B112" s="1">
-        <v>173523</v>
-      </c>
-      <c r="C112" s="1">
-        <v>259117</v>
-      </c>
-      <c r="D112" s="1">
-        <v>747366</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1024</v>
-      </c>
-      <c r="G112" s="1">
-        <v>1016153</v>
-      </c>
-      <c r="H112" s="1">
-        <v>1067616</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1041907</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B113" s="1">
-        <v>4457559</v>
-      </c>
-      <c r="C113" s="1">
-        <v>4633314</v>
-      </c>
-      <c r="D113" s="1">
-        <v>6053202</v>
-      </c>
-      <c r="F113" s="1">
-        <v>2048</v>
-      </c>
-      <c r="G113" s="1">
-        <v>10201985</v>
-      </c>
-      <c r="H113" s="1">
-        <v>9404831</v>
-      </c>
-      <c r="I113" s="1">
-        <v>8230836</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1"/>
+      <c r="B151"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1"/>
+      <c r="B152"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1"/>
+      <c r="B153"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B81:C81"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2854,10 +2642,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2881,6 +2669,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2895,6 +2689,12 @@
       <c r="B2" s="1">
         <v>40</v>
       </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
       <c r="H2" s="1">
         <v>32</v>
       </c>
@@ -2909,6 +2709,12 @@
       <c r="B3" s="1">
         <v>325</v>
       </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
       <c r="H3" s="1">
         <v>64</v>
       </c>
@@ -2923,6 +2729,12 @@
       <c r="B4" s="1">
         <v>2188</v>
       </c>
+      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1">
+        <v>102</v>
+      </c>
       <c r="H4" s="1">
         <v>128</v>
       </c>
@@ -2937,6 +2749,12 @@
       <c r="B5" s="1">
         <v>15568</v>
       </c>
+      <c r="D5" s="1">
+        <v>1161</v>
+      </c>
+      <c r="E5" s="1">
+        <v>799</v>
+      </c>
       <c r="H5" s="1">
         <v>256</v>
       </c>
@@ -2951,6 +2769,12 @@
       <c r="B6" s="1">
         <v>140059</v>
       </c>
+      <c r="D6" s="1">
+        <v>8519</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5194</v>
+      </c>
       <c r="H6" s="1">
         <v>512</v>
       </c>
@@ -2965,6 +2789,12 @@
       <c r="B7" s="1">
         <v>1139062</v>
       </c>
+      <c r="D7" s="1">
+        <v>67947</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45495</v>
+      </c>
       <c r="H7" s="1">
         <v>1024</v>
       </c>
@@ -2979,6 +2809,12 @@
       <c r="B8" s="1">
         <v>9196672</v>
       </c>
+      <c r="D8" s="1">
+        <v>1573614</v>
+      </c>
+      <c r="E8" s="1">
+        <v>708196</v>
+      </c>
       <c r="H8" s="1">
         <v>2048</v>
       </c>
@@ -2988,28 +2824,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3194,528 +3030,608 @@
         <v>2385961</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="A21" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
-        <v>64</v>
-      </c>
-      <c r="B23" s="1">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
-        <v>128</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
-        <v>256</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
-        <v>512</v>
-      </c>
-      <c r="B26" s="1">
-        <v>42122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B27" s="1">
-        <v>302546</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
         <v>2048</v>
       </c>
-      <c r="B28" s="1">
-        <v>2385961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1">
-        <v>32</v>
-      </c>
-      <c r="G30" s="1">
-        <v>64</v>
-      </c>
-      <c r="H30" s="1">
-        <v>128</v>
-      </c>
-      <c r="I30" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
-        <v>207</v>
-      </c>
-      <c r="C31" s="1">
-        <v>186</v>
-      </c>
-      <c r="D31" s="1">
-        <v>208</v>
-      </c>
-      <c r="E31" s="1">
-        <v>250</v>
-      </c>
-      <c r="F31" s="1">
-        <v>266</v>
-      </c>
-      <c r="G31" s="1">
-        <v>286</v>
-      </c>
-      <c r="H31" s="1">
-        <v>253</v>
-      </c>
-      <c r="I31" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>64</v>
       </c>
-      <c r="B32" s="1">
-        <v>626</v>
-      </c>
-      <c r="C32" s="1">
-        <v>556</v>
-      </c>
-      <c r="D32" s="1">
-        <v>606</v>
-      </c>
-      <c r="E32" s="1">
-        <v>742</v>
-      </c>
-      <c r="F32" s="1">
-        <v>963</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1185</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1263</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>128</v>
       </c>
-      <c r="B33" s="1">
-        <v>1895</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1522</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1574</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1801</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2751</v>
-      </c>
-      <c r="G33" s="1">
-        <v>4263</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5942</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>256</v>
       </c>
-      <c r="B34" s="1">
-        <v>14195</v>
-      </c>
-      <c r="C34" s="1">
-        <v>11854</v>
-      </c>
-      <c r="D34" s="1">
-        <v>11850</v>
-      </c>
-      <c r="E34" s="1">
-        <v>12972</v>
-      </c>
-      <c r="F34" s="1">
-        <v>16145</v>
-      </c>
-      <c r="G34" s="1">
-        <v>25332</v>
-      </c>
-      <c r="H34" s="1">
-        <v>41154</v>
-      </c>
-      <c r="I34" s="1">
-        <v>55678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>512</v>
       </c>
-      <c r="B35" s="1">
-        <v>65271</v>
-      </c>
-      <c r="C35" s="1">
-        <v>59207</v>
-      </c>
-      <c r="D35" s="1">
-        <v>59481</v>
-      </c>
-      <c r="E35" s="1">
-        <v>63110</v>
-      </c>
-      <c r="F35" s="1">
-        <v>72262</v>
-      </c>
-      <c r="G35" s="1">
-        <v>98607</v>
-      </c>
-      <c r="H35" s="1">
-        <v>190380</v>
-      </c>
-      <c r="I35" s="1">
-        <v>309181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>1024</v>
       </c>
-      <c r="B36" s="1">
-        <v>438679</v>
-      </c>
-      <c r="C36" s="1">
-        <v>416399</v>
-      </c>
-      <c r="D36" s="1">
-        <v>423255</v>
-      </c>
-      <c r="E36" s="1">
-        <v>409829</v>
-      </c>
-      <c r="F36" s="1">
-        <v>452732</v>
-      </c>
-      <c r="G36" s="1">
-        <v>524854</v>
-      </c>
-      <c r="H36" s="1">
-        <v>787350</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1258939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>2048</v>
       </c>
-      <c r="B37" s="1">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>512</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B47" s="1">
+        <v>302546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2385961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1">
+        <v>32</v>
+      </c>
+      <c r="G50" s="1">
+        <v>64</v>
+      </c>
+      <c r="H50" s="1">
+        <v>128</v>
+      </c>
+      <c r="I50" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1">
+        <v>207</v>
+      </c>
+      <c r="C51" s="1">
+        <v>186</v>
+      </c>
+      <c r="D51" s="1">
+        <v>208</v>
+      </c>
+      <c r="E51" s="1">
+        <v>250</v>
+      </c>
+      <c r="F51" s="1">
+        <v>266</v>
+      </c>
+      <c r="G51" s="1">
+        <v>286</v>
+      </c>
+      <c r="H51" s="1">
+        <v>253</v>
+      </c>
+      <c r="I51" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>626</v>
+      </c>
+      <c r="C52" s="1">
+        <v>556</v>
+      </c>
+      <c r="D52" s="1">
+        <v>606</v>
+      </c>
+      <c r="E52" s="1">
+        <v>742</v>
+      </c>
+      <c r="F52" s="1">
+        <v>963</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1185</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1263</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1895</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1522</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1574</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2751</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4263</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5942</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>256</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14195</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11854</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11850</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12972</v>
+      </c>
+      <c r="F54" s="1">
+        <v>16145</v>
+      </c>
+      <c r="G54" s="1">
+        <v>25332</v>
+      </c>
+      <c r="H54" s="1">
+        <v>41154</v>
+      </c>
+      <c r="I54" s="1">
+        <v>55678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>512</v>
+      </c>
+      <c r="B55" s="1">
+        <v>65271</v>
+      </c>
+      <c r="C55" s="1">
+        <v>59207</v>
+      </c>
+      <c r="D55" s="1">
+        <v>59481</v>
+      </c>
+      <c r="E55" s="1">
+        <v>63110</v>
+      </c>
+      <c r="F55" s="1">
+        <v>72262</v>
+      </c>
+      <c r="G55" s="1">
+        <v>98607</v>
+      </c>
+      <c r="H55" s="1">
+        <v>190380</v>
+      </c>
+      <c r="I55" s="1">
+        <v>309181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B56" s="1">
+        <v>438679</v>
+      </c>
+      <c r="C56" s="1">
+        <v>416399</v>
+      </c>
+      <c r="D56" s="1">
+        <v>423255</v>
+      </c>
+      <c r="E56" s="1">
+        <v>409829</v>
+      </c>
+      <c r="F56" s="1">
+        <v>452732</v>
+      </c>
+      <c r="G56" s="1">
+        <v>524854</v>
+      </c>
+      <c r="H56" s="1">
+        <v>787350</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1258939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B57" s="1">
         <v>3359415</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C57" s="1">
         <v>3193975</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D57" s="1">
         <v>3292164</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E57" s="1">
         <v>3285854</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F57" s="1">
         <v>3409441</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G57" s="1">
         <v>3668759</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H57" s="1">
         <v>4381140</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I57" s="1">
         <v>5491943</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C59" s="1">
         <v>4</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D59" s="1">
         <v>8</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E59" s="1">
         <v>16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F59" s="1">
         <v>32</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G59" s="1">
         <v>64</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H59" s="1">
         <v>128</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I59" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
         <v>32</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B60" s="1">
         <v>215</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C60" s="1">
         <v>182</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D60" s="1">
         <v>194</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E60" s="1">
         <v>227</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F60" s="1">
         <v>243</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G60" s="1">
         <v>241</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H60" s="1">
         <v>259</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I60" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
         <v>64</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B61" s="1">
         <v>577</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C61" s="1">
         <v>524</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D61" s="1">
         <v>571</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E61" s="1">
         <v>698</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F61" s="1">
         <v>874</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G61" s="1">
         <v>1092</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H61" s="1">
         <v>1057</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I61" s="1">
         <v>1026</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1">
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
         <v>128</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B62" s="1">
         <v>1587</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C62" s="1">
         <v>1478</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D62" s="1">
         <v>1567</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E62" s="1">
         <v>1765</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F62" s="1">
         <v>2649</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G62" s="1">
         <v>4145</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H62" s="1">
         <v>5706</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I62" s="1">
         <v>5602</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
         <v>256</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B63" s="1">
         <v>11937</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C63" s="1">
         <v>11148</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D63" s="1">
         <v>12088</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E63" s="1">
         <v>13374</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F63" s="1">
         <v>17150</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G63" s="1">
         <v>27353</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H63" s="1">
         <v>49558</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I63" s="1">
         <v>78497</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
         <v>512</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B64" s="1">
         <v>59456</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C64" s="1">
         <v>59976</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D64" s="1">
         <v>59405</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E64" s="1">
         <v>62616</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F64" s="1">
         <v>72836</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G64" s="1">
         <v>98094</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H64" s="1">
         <v>189318</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I64" s="1">
         <v>309131</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
         <v>1024</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B65" s="1">
         <v>393302</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C65" s="1">
         <v>397529</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D65" s="1">
         <v>397337</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E65" s="1">
         <v>465199</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F65" s="1">
         <v>481438</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G65" s="1">
         <v>519773</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H65" s="1">
         <v>684336</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I65" s="1">
         <v>1325133</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
         <v>2048</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B66" s="1">
         <v>3300538</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C66" s="1">
         <v>3349214</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D66" s="1">
         <v>3378662</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E66" s="1">
         <v>3983277</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F66" s="1">
         <v>4466950</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G66" s="1">
         <v>4632295</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H66" s="1">
         <v>5162045</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I66" s="1">
         <v>6081712</v>
       </c>
     </row>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>x86串行</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>arm</t>
+  </si>
+  <si>
+    <t>arm 8线程</t>
+  </si>
+  <si>
+    <t>行划分</t>
+  </si>
+  <si>
+    <t>列划分</t>
+  </si>
+  <si>
+    <t>x86 8线程</t>
   </si>
   <si>
     <t>avx_omp</t>
@@ -2616,17 +2628,14 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
-      <c r="B151"/>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
-      <c r="B152"/>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
-      <c r="B153"/>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:1">
@@ -2644,8 +2653,8 @@
   <sheetPr/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3030,89 +3039,290 @@
         <v>2385961</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="19" spans="7:9">
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1">
+        <v>482</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1">
+        <v>5945</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16282</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="G21" s="1">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1">
+        <v>954</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>11808</v>
+      </c>
+      <c r="C22" s="1">
+        <v>31305</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="G22" s="1">
+        <v>128</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1499</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1">
+        <v>22320</v>
+      </c>
+      <c r="C23" s="1">
+        <v>49351</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="G23" s="1">
+        <v>256</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7648</v>
+      </c>
+      <c r="I23" s="1">
+        <v>23108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1">
+        <v>46459</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88574</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1">
+        <v>512</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42122</v>
+      </c>
+      <c r="I24" s="1">
+        <v>128075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1">
+        <v>88968</v>
+      </c>
+      <c r="C25" s="1">
+        <v>287094</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1017428</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2548121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1">
+        <v>193422</v>
+      </c>
+      <c r="C26" s="1">
+        <v>866768</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1">
+        <v>2048</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2385961</v>
+      </c>
+      <c r="I26" s="1">
+        <v>27031656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>2048</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
+      <c r="B27" s="1">
+        <v>1672463</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8565422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1">
+      <c r="B33" s="1">
+        <v>1720</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
+      <c r="B34" s="1">
+        <v>3233</v>
+      </c>
+      <c r="D34" s="1">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1">
+      <c r="B35" s="1">
+        <v>6744</v>
+      </c>
+      <c r="D35" s="1">
+        <v>128</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
+      <c r="B36" s="1">
+        <v>12903</v>
+      </c>
+      <c r="D36" s="1">
+        <v>256</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1">
+      <c r="B37" s="1">
+        <v>31971</v>
+      </c>
+      <c r="D37" s="1">
+        <v>512</v>
+      </c>
+      <c r="E37" s="1">
+        <v>31535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1">
+      <c r="B38" s="1">
+        <v>100016</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E38" s="1">
+        <v>83839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>2048</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1209214</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E39" s="1">
+        <v>411627</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3173,7 +3383,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3405,7 +3615,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pthread" sheetId="1" r:id="rId1"/>
     <sheet name="OpenMP" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="analyse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>x86串行</t>
   </si>
@@ -209,6 +209,24 @@
   </si>
   <si>
     <t>guided</t>
+  </si>
+  <si>
+    <t>问题规模</t>
+  </si>
+  <si>
+    <t>串行</t>
+  </si>
+  <si>
+    <t>静+信</t>
+  </si>
+  <si>
+    <t>静+信+三</t>
+  </si>
+  <si>
+    <t>静+barrier</t>
+  </si>
+  <si>
+    <t>动态线程</t>
   </si>
 </sst>
 </file>
@@ -840,9 +858,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,16 +1187,16 @@
   <sheetPr/>
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="19.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="27.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="15.1818181818182" customWidth="1"/>
     <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
     <col min="6" max="6" width="23.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
@@ -1184,1437 +1205,1437 @@
     <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="1">
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>40</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="F2" s="1">
+      <c r="C2" s="2"/>
+      <c r="F2" s="2">
         <v>32</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>74</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="1">
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="2">
         <v>64</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>325</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1">
+      <c r="C3" s="2"/>
+      <c r="F3" s="2">
         <v>64</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>573</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>467</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2188</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1">
+      <c r="C4" s="2"/>
+      <c r="F4" s="2">
         <v>128</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>4510</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>3542</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
-      <c r="A5" s="1">
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="2">
         <v>256</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>15568</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="F5" s="1">
+      <c r="C5" s="2"/>
+      <c r="F5" s="2">
         <v>256</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>35565</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>27931</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="2">
         <v>512</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>140059</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="F6" s="1">
+      <c r="C6" s="2"/>
+      <c r="F6" s="2">
         <v>512</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>293934</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>226828</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:9">
+      <c r="A7" s="2">
         <v>1024</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1139062</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1">
+      <c r="C7" s="2"/>
+      <c r="F7" s="2">
         <v>1024</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>2415255</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1852177</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
-      <c r="A8" s="1">
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="A8" s="2">
         <v>2048</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>9196672</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="F8" s="1">
+      <c r="C8" s="2"/>
+      <c r="F8" s="2">
         <v>2048</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>21009373</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>14949371</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="1" t="s">
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="2">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>854</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1370</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>2422</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>921</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1894</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>3567</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="2">
         <v>64</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1501</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2364</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>4352</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>64</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1972</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>3885</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="A13" s="2">
         <v>128</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>3247</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>5212</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>8311</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>128</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>5154</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>7056</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>11349</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="A14" s="2">
         <v>256</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>7580</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>10212</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>19282</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>256</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>19854</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>21452</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>28746</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
-      <c r="A15" s="1">
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="2">
         <v>512</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>31468</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>29409</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>54636</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>512</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>109412</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>116228</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>82048</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="2">
         <v>1024</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>154008</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>129182</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>137243</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1024</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1126153</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>244402</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>454512</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="A17" s="2">
         <v>2048</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1703095</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1503981</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1326324</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>2048</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>8430835</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>4428416</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>2797632</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
-      <c r="A21" s="1">
+    <row r="21" s="2" customFormat="1" spans="1:9">
+      <c r="A21" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>810</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1083</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1504</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>32</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>898</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>1491</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>2839</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" spans="1:9">
+      <c r="A22" s="2">
         <v>64</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1318</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1743</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>2308</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>64</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1026</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>2625</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>4950</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" spans="1:9">
+      <c r="A23" s="2">
         <v>128</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2550</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>2895</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>4054</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>128</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>2465</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>6181</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>9334</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
-      <c r="A24" s="1">
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="2">
         <v>256</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>5935</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>6261</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>7573</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>256</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>9257</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>20293</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>26307</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="1">
+    <row r="25" s="2" customFormat="1" spans="1:9">
+      <c r="A25" s="2">
         <v>512</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>21110</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>18328</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>21054</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>512</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>48754</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>55976</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>91084</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:9">
-      <c r="A26" s="1">
+    <row r="26" s="2" customFormat="1" spans="1:9">
+      <c r="A26" s="2">
         <v>1024</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>100619</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>70068</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>67265</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1024</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>724775</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>390778</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>291638</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:9">
-      <c r="A27" s="1">
+    <row r="27" s="2" customFormat="1" spans="1:9">
+      <c r="A27" s="2">
         <v>2048</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1514484</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>1335012</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>1389486</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>2048</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>2772837</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>2101476</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>2032767</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>795</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>971</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>1722</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>32</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>570</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>1508</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>2715</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>64</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>1271</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>1356</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>2916</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>64</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1120</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>2846</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>4971</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>128</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>2418</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>2643</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>5383</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>128</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>6078</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>6889</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="2">
         <v>13177</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>256</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>6357</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>5594</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>11714</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>256</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>9355</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>15596</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="2">
         <v>25942</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>512</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>22447</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>17466</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>27668</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>512</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>138373</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>78746</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="2">
         <v>78509</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>1024</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>100989</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>71229</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>85605</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>1024</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <v>1003221</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>211284</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="2">
         <v>389754</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>2048</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>1656823</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>1440250</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>1445745</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>2048</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <v>3551806</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>4020581</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="2">
         <v>2638836</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" customFormat="1" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>27928</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>32</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>30115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>64</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>110316</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>64</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>110077</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:7">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>128</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>430543</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>128</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>395053</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>256</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>1785005</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>256</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <v>1912973</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:7">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>512</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>8359920</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>512</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>7383170</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:7">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>1024</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>37027523</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>1024</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>28885192</v>
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="6:9">
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>32</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>730</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>871</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>1357</v>
       </c>
     </row>
     <row r="50" spans="6:9">
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>64</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>1049</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>1548</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>4721</v>
       </c>
     </row>
     <row r="51" spans="6:9">
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>128</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>2193</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>3656</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>4953</v>
       </c>
     </row>
     <row r="52" spans="6:9">
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>256</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>5666</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>10950</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>19440</v>
       </c>
     </row>
     <row r="53" spans="6:9">
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>512</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>27517</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <v>37255</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="2">
         <v>50119</v>
       </c>
     </row>
     <row r="54" spans="6:9">
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>1024</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>209620</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <v>182895</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="2">
         <v>175035</v>
       </c>
     </row>
     <row r="55" spans="6:9">
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>2048</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>1753274</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>1493037</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="2">
         <v>1057100</v>
       </c>
     </row>
     <row r="56" spans="6:9">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="6:9">
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="6:9">
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="6:9">
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>8</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <v>2</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <v>4</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>32</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>810</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>1083</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>1504</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>32</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <v>898</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>1491</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="2">
         <v>2839</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>64</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>1318</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>1743</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>2308</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>64</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <v>1026</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>2625</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="2">
         <v>4950</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>128</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>2550</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>2895</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>4054</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>128</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="2">
         <v>2465</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="2">
         <v>6181</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="2">
         <v>9334</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:9">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>256</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>5935</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>6261</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>7573</v>
       </c>
       <c r="E65"/>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>256</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <v>9257</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="2">
         <v>20293</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="2">
         <v>26307</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>512</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>21110</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>18328</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>21054</v>
       </c>
       <c r="E66"/>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>512</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>48754</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>55976</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="2">
         <v>91084</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:9">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>1024</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>100619</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>70068</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>67265</v>
       </c>
       <c r="E67"/>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>1024</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="2">
         <v>724775</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="2">
         <v>390778</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="2">
         <v>291638</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:9">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>2048</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>1514484</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>1335012</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>1389486</v>
       </c>
       <c r="E68"/>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>2048</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="2">
         <v>2772837</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="2">
         <v>2101476</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="2">
         <v>2032767</v>
       </c>
     </row>
     <row r="69" customFormat="1"/>
     <row r="70" customFormat="1" spans="1:9">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>2</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>4</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>8</v>
       </c>
       <c r="E70"/>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="2">
         <v>2</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="2">
         <v>4</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:9">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>32</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>959</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>1216</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>1809</v>
       </c>
       <c r="E71"/>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>32</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="2">
         <v>656</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="2">
         <v>1714</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="2">
         <v>2487</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:9">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>64</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>1624</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>2248</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>3538</v>
       </c>
       <c r="E72"/>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>64</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="2">
         <v>1101</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="2">
         <v>3196</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="2">
         <v>4813</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:9">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>128</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>2697</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>4125</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>10455</v>
       </c>
       <c r="E73"/>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>128</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="2">
         <v>4193</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="2">
         <v>6403</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="2">
         <v>11874</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>256</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>7028</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>13128</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>34940</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>256</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="2">
         <v>10842</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="2">
         <v>21898</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="2">
         <v>31758</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>512</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>33135</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>57323</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>136354</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>512</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="2">
         <v>177638</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="2">
         <v>207603</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="2">
         <v>213125</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>1024</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>173523</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>259117</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>747366</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>1024</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="2">
         <v>1016153</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="2">
         <v>1067616</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="2">
         <v>1041907</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>2048</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>4457559</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>4633314</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>6053202</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>2048</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="2">
         <v>10201985</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="2">
         <v>9404831</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="2">
         <v>8230836</v>
       </c>
     </row>
@@ -2624,22 +2645,22 @@
       </c>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="1"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="2"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="2"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="2"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="1"/>
+      <c r="A154" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,1195 +2674,1188 @@
   <sheetPr/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.1818181818182" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>40</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>32</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>64</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>325</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>64</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2188</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>140</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>102</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>128</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>4510</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>256</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>15568</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1161</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>799</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>256</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>35565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>512</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>140059</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8519</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>5194</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>512</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>293934</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1024</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1139062</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>67947</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>45495</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>1024</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>2415255</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>2048</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>9196672</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1573614</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>708196</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>2048</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>21009373</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1694</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>3193</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>5945</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>32</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>239</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>394</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>64</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>3451</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>6010</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>11808</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>64</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>497</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>754</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>128</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>5992</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>11189</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>22320</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>128</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>2529</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>2204</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>1499</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>256</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>12155</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>23393</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>46459</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>256</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>19199</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>11164</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>7648</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>512</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>32497</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>46415</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>88968</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>512</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>145379</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>75069</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>42122</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>1024</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>123953</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>120592</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>193422</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1024</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>1156866</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>580655</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>1017428</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2048</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1637803</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1500110</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1672463</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>2048</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>9418961</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>4577917</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>2385961</v>
       </c>
     </row>
     <row r="19" spans="7:9">
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>32</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>482</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>1054</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>5945</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>16282</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>64</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>954</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>2121</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>64</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>11808</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>31305</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>128</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>1499</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>6808</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>128</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>22320</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>49351</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>256</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>7648</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>23108</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>256</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>46459</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>88574</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>512</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>42122</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>128075</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>512</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>88968</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>287094</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>1024</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>1017428</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>2548121</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>1024</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>193422</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>866768</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>2048</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>2385961</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>27031656</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>2048</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1672463</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>8565422</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>1720</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>32</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>1856</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>64</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>3233</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>64</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>3170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>128</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>6744</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>128</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>6470</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>256</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>12903</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>256</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>13077</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>512</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>31971</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>512</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>31535</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>1024</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>100016</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>1024</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>83839</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>2048</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>1209214</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>2048</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>411627</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>32</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>64</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>954</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>128</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>1499</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>256</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>7648</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>512</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>42122</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>1024</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>302546</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>2048</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>2385961</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>4</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>8</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>16</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>32</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>64</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>128</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>32</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>207</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>186</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>208</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>250</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>266</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>286</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>253</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>64</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>626</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>556</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>606</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>742</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>963</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>1185</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>1263</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>128</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>1895</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>1522</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>1574</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>1801</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>2751</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>4263</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <v>5942</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="2">
         <v>5864</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>256</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>14195</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>11854</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>11850</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>12972</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>16145</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>25332</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <v>41154</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="2">
         <v>55678</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>512</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>65271</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>59207</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>59481</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>63110</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>72262</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>98607</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>190380</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="2">
         <v>309181</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>1024</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>438679</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>416399</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>423255</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>409829</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>452732</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <v>524854</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="2">
         <v>787350</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="2">
         <v>1258939</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>2048</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>3359415</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>3193975</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>3292164</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>3285854</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>3409441</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <v>3668759</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2">
         <v>4381140</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="2">
         <v>5491943</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>4</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>8</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>16</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>32</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <v>64</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="2">
         <v>128</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>32</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>215</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>182</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>194</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>227</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>243</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="2">
         <v>241</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="2">
         <v>259</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="2">
         <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>64</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>577</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>524</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>571</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>698</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>874</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <v>1092</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <v>1057</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="2">
         <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>128</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>1587</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>1478</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>1567</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>1765</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>2649</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <v>4145</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>5706</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="2">
         <v>5602</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>256</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>11937</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>11148</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>12088</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>13374</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>17150</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <v>27353</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>49558</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="2">
         <v>78497</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>512</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>59456</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>59976</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>59405</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>62616</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>72836</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="2">
         <v>98094</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="2">
         <v>189318</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="2">
         <v>309131</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>1024</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>393302</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>397529</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>397337</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>465199</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>481438</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <v>519773</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="2">
         <v>684336</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="2">
         <v>1325133</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>2048</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>3300538</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>3349214</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>3378662</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>3983277</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>4466950</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>4632295</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>5162045</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="2">
         <v>6081712</v>
       </c>
     </row>
@@ -3855,14 +3869,179 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2422</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1504</v>
+      </c>
+      <c r="F2" s="2">
+        <v>27928</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2">
+        <v>325</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4352</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2916</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2308</v>
+      </c>
+      <c r="F3" s="2">
+        <v>110316</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="2">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2188</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8311</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5383</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4054</v>
+      </c>
+      <c r="F4" s="2">
+        <v>430543</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="2">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15568</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19282</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11714</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7573</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1785005</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="2">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2">
+        <v>140059</v>
+      </c>
+      <c r="C6" s="2">
+        <v>54636</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27668</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21054</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8359920</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1139062</v>
+      </c>
+      <c r="C7" s="2">
+        <v>137243</v>
+      </c>
+      <c r="D7" s="2">
+        <v>85605</v>
+      </c>
+      <c r="E7" s="2">
+        <v>67265</v>
+      </c>
+      <c r="F7" s="2">
+        <v>37027523</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9196672</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1326324</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1445745</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1389486</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Pthread" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>x86串行</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>动态线程</t>
+  </si>
+  <si>
+    <t>线程数8</t>
+  </si>
+  <si>
+    <t>barrier行划分</t>
+  </si>
+  <si>
+    <t>barrier列划分</t>
   </si>
 </sst>
 </file>
@@ -858,12 +867,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1205,1437 +1211,1437 @@
     <col min="10" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2">
+      <c r="C2" s="1"/>
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>74</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>325</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2">
+      <c r="C3" s="1"/>
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>573</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>467</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2188</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="2">
+      <c r="C4" s="1"/>
+      <c r="F4" s="1">
         <v>128</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>4510</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>3542</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15568</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="F5" s="2">
+      <c r="C5" s="1"/>
+      <c r="F5" s="1">
         <v>256</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>35565</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>27931</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140059</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2">
+      <c r="C6" s="1"/>
+      <c r="F6" s="1">
         <v>512</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>293934</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>226828</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="2">
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139062</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1">
         <v>1024</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2415255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1852177</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="2">
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196672</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2">
+      <c r="C8" s="1"/>
+      <c r="F8" s="1">
         <v>2048</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>21009373</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>14949371</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="2" t="s">
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="2">
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>854</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1370</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2422</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>32</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>921</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1894</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>3567</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="2">
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="1">
         <v>64</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1501</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2364</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4352</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>64</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1972</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>3885</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>6300</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="2">
+    <row r="13" s="1" customFormat="1" spans="1:9">
+      <c r="A13" s="1">
         <v>128</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3247</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>5212</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>8311</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>128</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>5154</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>7056</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>11349</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="2">
+    <row r="14" s="1" customFormat="1" spans="1:9">
+      <c r="A14" s="1">
         <v>256</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>7580</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>10212</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>19282</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>256</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>19854</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>21452</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>28746</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:9">
-      <c r="A15" s="2">
+    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="A15" s="1">
         <v>512</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>31468</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>29409</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>54636</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>512</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>109412</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>116228</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>82048</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:9">
-      <c r="A16" s="2">
+    <row r="16" s="1" customFormat="1" spans="1:9">
+      <c r="A16" s="1">
         <v>1024</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>154008</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>129182</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>137243</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1024</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1126153</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>244402</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>454512</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:9">
-      <c r="A17" s="2">
+    <row r="17" s="1" customFormat="1" spans="1:9">
+      <c r="A17" s="1">
         <v>2048</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1703095</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1503981</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1326324</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>2048</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>8430835</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>4428416</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2797632</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:9">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:9">
-      <c r="A21" s="2">
+    <row r="21" s="1" customFormat="1" spans="1:9">
+      <c r="A21" s="1">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>810</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1083</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1504</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>32</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>898</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>1491</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>2839</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:9">
-      <c r="A22" s="2">
+    <row r="22" s="1" customFormat="1" spans="1:9">
+      <c r="A22" s="1">
         <v>64</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1318</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1743</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>2308</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>64</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>1026</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>2625</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>4950</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:9">
-      <c r="A23" s="2">
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="1">
         <v>128</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2550</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2895</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>4054</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>128</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2465</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>6181</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>9334</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
-      <c r="A24" s="2">
+    <row r="24" s="1" customFormat="1" spans="1:9">
+      <c r="A24" s="1">
         <v>256</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>5935</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>6261</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>7573</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>256</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>9257</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>20293</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>26307</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
-      <c r="A25" s="2">
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1">
         <v>512</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>21110</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>18328</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>21054</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>512</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>48754</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>55976</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>91084</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="2">
+    <row r="26" s="1" customFormat="1" spans="1:9">
+      <c r="A26" s="1">
         <v>1024</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>100619</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>70068</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>67265</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1024</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>724775</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>390778</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>291638</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:9">
-      <c r="A27" s="2">
+    <row r="27" s="1" customFormat="1" spans="1:9">
+      <c r="A27" s="1">
         <v>2048</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1514484</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1335012</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>1389486</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>2048</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>2772837</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>2101476</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>2032767</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="46" spans="1:9">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>795</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>971</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>1722</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>32</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>570</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>1508</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>2715</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>64</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1271</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1356</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2916</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>64</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>1120</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>2846</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>4971</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>128</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2418</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2643</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>5383</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>128</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>6078</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>6889</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>13177</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>256</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>6357</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>5594</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>11714</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>256</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>9355</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>15596</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>25942</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>512</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>22447</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>17466</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>27668</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>512</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>138373</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>78746</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>78509</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>1024</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>100989</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>71229</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>85605</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>1024</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>1003221</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>211284</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>389754</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>2048</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1656823</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1440250</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>1445745</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2048</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>3551806</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>4020581</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>2638836</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="1" spans="1:7">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>27928</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>32</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>30115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>64</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>110316</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>64</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>110077</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>128</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>430543</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>128</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>395053</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:7">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>256</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>1785005</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>256</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>1912973</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:7">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>512</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>8359920</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>512</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>7383170</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:7">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>1024</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>37027523</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>1024</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>28885192</v>
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>4</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="6:9">
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>32</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>730</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>871</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>1357</v>
       </c>
     </row>
     <row r="50" spans="6:9">
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>64</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>1049</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>1548</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>4721</v>
       </c>
     </row>
     <row r="51" spans="6:9">
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>128</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>2193</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>3656</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>4953</v>
       </c>
     </row>
     <row r="52" spans="6:9">
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>256</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>5666</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>10950</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>19440</v>
       </c>
     </row>
     <row r="53" spans="6:9">
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>512</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>27517</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>37255</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>50119</v>
       </c>
     </row>
     <row r="54" spans="6:9">
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1024</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>209620</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>182895</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>175035</v>
       </c>
     </row>
     <row r="55" spans="6:9">
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>2048</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>1753274</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>1493037</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>1057100</v>
       </c>
     </row>
     <row r="56" spans="6:9">
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="6:9">
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="6:9">
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="6:9">
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>4</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>4</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>32</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>810</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>1083</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>1504</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>32</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>898</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>1491</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>2839</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>64</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>1318</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>1743</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>2308</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>64</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>1026</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>2625</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>4950</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>128</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>2550</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>2895</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>4054</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>128</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>2465</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>6181</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>9334</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:9">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>256</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>5935</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>6261</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>7573</v>
       </c>
       <c r="E65"/>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>256</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>9257</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>20293</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>26307</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>512</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>21110</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>18328</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>21054</v>
       </c>
       <c r="E66"/>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>512</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>48754</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>55976</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>91084</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:9">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>1024</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>100619</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>70068</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>67265</v>
       </c>
       <c r="E67"/>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>1024</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>724775</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>390778</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>291638</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:9">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>2048</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>1514484</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>1335012</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>1389486</v>
       </c>
       <c r="E68"/>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>2048</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>2772837</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>2101476</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>2032767</v>
       </c>
     </row>
     <row r="69" customFormat="1"/>
     <row r="70" customFormat="1" spans="1:9">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>2</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>4</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>8</v>
       </c>
       <c r="E70"/>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>2</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>4</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:9">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>32</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>959</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>1216</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>1809</v>
       </c>
       <c r="E71"/>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>32</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>656</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>1714</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>2487</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:9">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>64</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>1624</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>2248</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>3538</v>
       </c>
       <c r="E72"/>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>64</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>1101</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>3196</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>4813</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:9">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>128</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>2697</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>4125</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>10455</v>
       </c>
       <c r="E73"/>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>128</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>4193</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>6403</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>11874</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>256</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>7028</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>13128</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>34940</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>256</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>10842</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>21898</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>31758</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>512</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>33135</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>57323</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>136354</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>512</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>177638</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>207603</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>213125</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>1024</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>173523</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>259117</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>747366</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>1024</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="1">
         <v>1016153</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="1">
         <v>1067616</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="1">
         <v>1041907</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>2048</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>4457559</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>4633314</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>6053202</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>2048</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="1">
         <v>10201985</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="1">
         <v>9404831</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="1">
         <v>8230836</v>
       </c>
     </row>
@@ -2645,22 +2651,22 @@
       </c>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="2"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" s="1"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,1187 +2681,1187 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1818181818182" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>32</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>325</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>64</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2188</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>140</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>102</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>128</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>4510</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15568</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1161</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>799</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>256</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>35565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140059</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8519</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5194</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>512</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>293934</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139062</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>67947</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>45495</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1024</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2415255</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196672</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1573614</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>708196</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2048</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>21009373</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1694</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>3193</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>5945</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>32</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>239</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>394</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>64</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3451</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>6010</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>11808</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>64</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>497</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>754</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>128</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>5992</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>11189</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>22320</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>128</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>2529</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2204</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1499</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>256</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12155</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>23393</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>46459</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>256</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>19199</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>11164</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>7648</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>512</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>32497</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>46415</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>88968</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>512</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>145379</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>75069</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>42122</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>1024</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>123953</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>120592</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>193422</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1024</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>1156866</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>580655</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>1017428</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2048</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1637803</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1500110</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1672463</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>2048</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>9418961</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>4577917</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>2385961</v>
       </c>
     </row>
     <row r="19" spans="7:9">
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>32</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>482</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1054</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>5945</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>16282</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>64</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>954</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>2121</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>64</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>11808</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>31305</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>128</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>1499</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>6808</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>128</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>22320</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>49351</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>256</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>7648</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>23108</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>256</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>46459</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>88574</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>512</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>42122</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>128075</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>512</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>88968</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>287094</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>1024</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>1017428</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>2548121</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>1024</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>193422</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>866768</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>2048</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>2385961</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>27031656</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>2048</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1672463</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>8565422</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>1720</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>1856</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>64</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>3233</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>64</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>3170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>128</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>6744</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>128</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>6470</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>256</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>12903</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>256</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>13077</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>512</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>31971</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>512</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>31535</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>1024</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>100016</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>1024</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>83839</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>2048</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>1209214</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>2048</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>411627</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>32</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>64</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>954</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>128</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1499</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>256</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>7648</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>512</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>42122</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>1024</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>302546</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>2048</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>2385961</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>8</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>16</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>32</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>64</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>128</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>32</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>207</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>186</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>208</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>250</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>266</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>286</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>253</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>64</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>626</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>556</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>606</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>742</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>963</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>1185</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>1263</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>128</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>1895</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>1522</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>1574</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>1801</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>2751</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>4263</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>5942</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>5864</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>256</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>14195</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>11854</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>11850</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>12972</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>16145</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>25332</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>41154</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>55678</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>512</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>65271</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>59207</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>59481</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>63110</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>72262</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>98607</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>190380</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>309181</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>1024</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>438679</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>416399</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>423255</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>409829</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>452732</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>524854</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>787350</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>1258939</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>2048</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>3359415</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>3193975</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>3292164</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>3285854</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>3409441</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>3668759</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>4381140</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <v>5491943</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>4</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>8</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>16</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>32</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>64</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>128</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>32</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>215</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>182</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>194</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>227</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>243</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>241</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>259</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>577</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>524</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>571</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>698</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>874</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>1092</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>1057</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>128</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>1587</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>1478</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>1567</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>1765</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>2649</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>4145</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>5706</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>5602</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>256</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>11937</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>11148</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>12088</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>13374</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>17150</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>27353</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>49558</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>78497</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>512</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>59456</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>59976</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>59405</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>62616</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>72836</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>98094</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>189318</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>309131</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>1024</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>393302</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>397529</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>397337</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>465199</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>481438</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>519773</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>684336</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>1325133</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>2048</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>3300538</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>3349214</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>3378662</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>3983277</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>4466950</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>4632295</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>5162045</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>6081712</v>
       </c>
     </row>
@@ -3869,15 +3875,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.7272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2727272727273" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.8181818181818" style="1" customWidth="1"/>
@@ -3885,10 +3892,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3905,140 +3912,601 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2422</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1722</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1504</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>27928</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>325</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4352</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2916</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2308</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>110316</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2188</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>8311</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5383</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4054</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>430543</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15568</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>19282</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>11714</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>7573</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1785005</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140059</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>54636</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>27668</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>21054</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8359920</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139062</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>137243</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>85605</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>67265</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>37027523</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196672</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1326324</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1445745</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1389486</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1504</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2308</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4054</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1">
+        <v>256</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7573</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34940</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1">
+        <v>512</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21054</v>
+      </c>
+      <c r="C15" s="1">
+        <v>136354</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="1">
+        <v>67265</v>
+      </c>
+      <c r="C16" s="1">
+        <v>747366</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1389486</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6053202</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:11">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3567</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2715</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2839</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30115</v>
+      </c>
+      <c r="I22" s="1">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2839</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:11">
+      <c r="A23" s="1">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1">
+        <v>573</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6300</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4971</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F23" s="1">
+        <v>110077</v>
+      </c>
+      <c r="I23" s="1">
+        <v>64</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4950</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24" s="1">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4510</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11349</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13177</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9334</v>
+      </c>
+      <c r="F24" s="1">
+        <v>395053</v>
+      </c>
+      <c r="I24" s="1">
+        <v>128</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9334</v>
+      </c>
+      <c r="K24" s="1">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25" s="1">
+        <v>256</v>
+      </c>
+      <c r="B25" s="1">
+        <v>35565</v>
+      </c>
+      <c r="C25" s="1">
+        <v>28746</v>
+      </c>
+      <c r="D25" s="1">
+        <v>25942</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26307</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1912973</v>
+      </c>
+      <c r="I25" s="1">
+        <v>256</v>
+      </c>
+      <c r="J25" s="1">
+        <v>26307</v>
+      </c>
+      <c r="K25" s="1">
+        <v>31758</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26" s="1">
+        <v>512</v>
+      </c>
+      <c r="B26" s="1">
+        <v>293934</v>
+      </c>
+      <c r="C26" s="1">
+        <v>82048</v>
+      </c>
+      <c r="D26" s="1">
+        <v>78509</v>
+      </c>
+      <c r="E26" s="1">
+        <v>91084</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7383170</v>
+      </c>
+      <c r="I26" s="1">
+        <v>512</v>
+      </c>
+      <c r="J26" s="1">
+        <v>91084</v>
+      </c>
+      <c r="K26" s="1">
+        <v>213125</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2415255</v>
+      </c>
+      <c r="C27" s="1">
+        <v>454512</v>
+      </c>
+      <c r="D27" s="1">
+        <v>389754</v>
+      </c>
+      <c r="E27" s="1">
+        <v>291638</v>
+      </c>
+      <c r="F27" s="1">
+        <v>28885192</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J27" s="1">
+        <v>291638</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1041907</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:11">
+      <c r="A28" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21009373</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2797632</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2638836</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2032767</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2048</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2032767</v>
+      </c>
+      <c r="K28" s="1">
+        <v>8230836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1">
+        <v>730</v>
+      </c>
+      <c r="D32" s="1">
+        <v>871</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1">
+        <v>467</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1548</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3542</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2193</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3656</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>256</v>
+      </c>
+      <c r="B35" s="1">
+        <v>27931</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5666</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10950</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>512</v>
+      </c>
+      <c r="B36" s="1">
+        <v>226828</v>
+      </c>
+      <c r="C36" s="1">
+        <v>27517</v>
+      </c>
+      <c r="D36" s="1">
+        <v>37255</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1852177</v>
+      </c>
+      <c r="C37" s="1">
+        <v>209620</v>
+      </c>
+      <c r="D37" s="1">
+        <v>182895</v>
+      </c>
+      <c r="E37" s="1">
+        <v>175035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B38" s="1">
+        <v>14949371</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1753274</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1493037</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1057100</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/data.xlsx
+++ b/lab3/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>x86串行</t>
   </si>
@@ -205,6 +205,9 @@
     <t>static</t>
   </si>
   <si>
+    <t>执行时间</t>
+  </si>
+  <si>
     <t>dynamic</t>
   </si>
   <si>
@@ -236,6 +239,21 @@
   </si>
   <si>
     <t>barrier列划分</t>
+  </si>
+  <si>
+    <t>avx_omp2线程</t>
+  </si>
+  <si>
+    <t>sse_omp2线程</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Pthread</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2432,7 +2450,6 @@
         <v>2032767</v>
       </c>
     </row>
-    <row r="69" customFormat="1"/>
     <row r="70" customFormat="1" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>15</v>
@@ -2681,7 +2698,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J11" sqref="J11:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3340,9 +3357,12 @@
         <v>411627</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3403,7 +3423,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3635,7 +3655,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -3875,10 +3895,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3888,27 +3908,29 @@
     <col min="3" max="3" width="10.7272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2727272727273" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="10" width="9.54545454545454" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -3971,7 +3993,7 @@
         <v>430543</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -4053,13 +4075,13 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
@@ -4146,31 +4168,31 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:11">
@@ -4373,9 +4395,9 @@
         <v>8230836</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -4389,8 +4411,20 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4406,8 +4440,20 @@
       <c r="E32" s="1">
         <v>1357</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="1">
+        <v>32</v>
+      </c>
+      <c r="H32" s="1">
+        <v>74</v>
+      </c>
+      <c r="I32" s="1">
+        <v>66</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>64</v>
       </c>
@@ -4423,8 +4469,20 @@
       <c r="E33" s="1">
         <v>4721</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="1">
+        <v>64</v>
+      </c>
+      <c r="H33" s="1">
+        <v>573</v>
+      </c>
+      <c r="I33" s="1">
+        <v>467</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>128</v>
       </c>
@@ -4440,8 +4498,20 @@
       <c r="E34" s="1">
         <v>4953</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="1">
+        <v>128</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4510</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3542</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>256</v>
       </c>
@@ -4457,8 +4527,20 @@
       <c r="E35" s="1">
         <v>19440</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="1">
+        <v>256</v>
+      </c>
+      <c r="H35" s="1">
+        <v>35565</v>
+      </c>
+      <c r="I35" s="1">
+        <v>27931</v>
+      </c>
+      <c r="J35" s="1">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>512</v>
       </c>
@@ -4474,8 +4556,20 @@
       <c r="E36" s="1">
         <v>50119</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" s="1">
+        <v>512</v>
+      </c>
+      <c r="H36" s="1">
+        <v>293934</v>
+      </c>
+      <c r="I36" s="1">
+        <v>226828</v>
+      </c>
+      <c r="J36" s="1">
+        <v>50119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>1024</v>
       </c>
@@ -4491,8 +4585,20 @@
       <c r="E37" s="1">
         <v>175035</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2415255</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1852177</v>
+      </c>
+      <c r="J37" s="1">
+        <v>175035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>2048</v>
       </c>
@@ -4507,6 +4613,746 @@
       </c>
       <c r="E38" s="1">
         <v>1057100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2048</v>
+      </c>
+      <c r="H38" s="1">
+        <v>21009373</v>
+      </c>
+      <c r="I38" s="1">
+        <v>14949371</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1057100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>32</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1694</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3193</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5945</v>
+      </c>
+      <c r="H43" s="1">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1">
+        <v>482</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <v>325</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3451</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6010</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11808</v>
+      </c>
+      <c r="H44" s="1">
+        <v>64</v>
+      </c>
+      <c r="I44" s="1">
+        <v>954</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>128</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2188</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5992</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11189</v>
+      </c>
+      <c r="E45" s="1">
+        <v>22320</v>
+      </c>
+      <c r="H45" s="1">
+        <v>128</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1499</v>
+      </c>
+      <c r="J45" s="1">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>256</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15568</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12155</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23393</v>
+      </c>
+      <c r="E46" s="1">
+        <v>46459</v>
+      </c>
+      <c r="H46" s="1">
+        <v>256</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7648</v>
+      </c>
+      <c r="J46" s="1">
+        <v>23108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>512</v>
+      </c>
+      <c r="B47" s="1">
+        <v>140059</v>
+      </c>
+      <c r="C47" s="1">
+        <v>32497</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46415</v>
+      </c>
+      <c r="E47" s="1">
+        <v>88968</v>
+      </c>
+      <c r="H47" s="1">
+        <v>512</v>
+      </c>
+      <c r="I47" s="1">
+        <v>42122</v>
+      </c>
+      <c r="J47" s="1">
+        <v>128075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1139062</v>
+      </c>
+      <c r="C48" s="1">
+        <v>123953</v>
+      </c>
+      <c r="D48" s="1">
+        <v>120592</v>
+      </c>
+      <c r="E48" s="1">
+        <v>193422</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1017428</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2548121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9196672</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1637803</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1500110</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1672463</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2048</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2385961</v>
+      </c>
+      <c r="J49" s="1">
+        <v>27031656</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1694</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3193</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5945</v>
+      </c>
+      <c r="E55" s="1">
+        <v>239</v>
+      </c>
+      <c r="F55" s="1">
+        <v>394</v>
+      </c>
+      <c r="G55" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3451</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6010</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11808</v>
+      </c>
+      <c r="E56" s="1">
+        <v>497</v>
+      </c>
+      <c r="F56" s="1">
+        <v>754</v>
+      </c>
+      <c r="G56" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5992</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11189</v>
+      </c>
+      <c r="D57" s="1">
+        <v>22320</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2529</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2204</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>256</v>
+      </c>
+      <c r="B58" s="1">
+        <v>12155</v>
+      </c>
+      <c r="C58" s="1">
+        <v>23393</v>
+      </c>
+      <c r="D58" s="1">
+        <v>46459</v>
+      </c>
+      <c r="E58" s="1">
+        <v>19199</v>
+      </c>
+      <c r="F58" s="1">
+        <v>11164</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>512</v>
+      </c>
+      <c r="B59" s="1">
+        <v>32497</v>
+      </c>
+      <c r="C59" s="1">
+        <v>46415</v>
+      </c>
+      <c r="D59" s="1">
+        <v>88968</v>
+      </c>
+      <c r="E59" s="1">
+        <v>145379</v>
+      </c>
+      <c r="F59" s="1">
+        <v>75069</v>
+      </c>
+      <c r="G59" s="1">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B60" s="1">
+        <v>123953</v>
+      </c>
+      <c r="C60" s="1">
+        <v>120592</v>
+      </c>
+      <c r="D60" s="1">
+        <v>193422</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1156866</v>
+      </c>
+      <c r="F60" s="1">
+        <v>580655</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1017428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1637803</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1500110</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1672463</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9418961</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4577917</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2385961</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>32</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1720</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3233</v>
+      </c>
+      <c r="D67" s="1">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>128</v>
+      </c>
+      <c r="B68" s="1">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6744</v>
+      </c>
+      <c r="D68" s="1">
+        <v>102</v>
+      </c>
+      <c r="E68" s="1">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1161</v>
+      </c>
+      <c r="C69" s="1">
+        <v>12903</v>
+      </c>
+      <c r="D69" s="1">
+        <v>799</v>
+      </c>
+      <c r="E69" s="1">
+        <v>13077</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>512</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8519</v>
+      </c>
+      <c r="C70" s="1">
+        <v>31971</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5194</v>
+      </c>
+      <c r="E70" s="1">
+        <v>31535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B71" s="1">
+        <v>67947</v>
+      </c>
+      <c r="C71" s="1">
+        <v>100016</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45495</v>
+      </c>
+      <c r="E71" s="1">
+        <v>83839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1573614</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1209214</v>
+      </c>
+      <c r="D72" s="1">
+        <v>708196</v>
+      </c>
+      <c r="E72" s="1">
+        <v>411627</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>32</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1504</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5945</v>
+      </c>
+      <c r="E78" s="1">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2839</v>
+      </c>
+      <c r="G78" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>64</v>
+      </c>
+      <c r="B79" s="1">
+        <v>325</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2308</v>
+      </c>
+      <c r="D79" s="1">
+        <v>11808</v>
+      </c>
+      <c r="E79" s="1">
+        <v>573</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4950</v>
+      </c>
+      <c r="G79" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>128</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2188</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4054</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22320</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4510</v>
+      </c>
+      <c r="F80" s="1">
+        <v>9334</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>256</v>
+      </c>
+      <c r="B81" s="1">
+        <v>15568</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7573</v>
+      </c>
+      <c r="D81" s="1">
+        <v>46459</v>
+      </c>
+      <c r="E81" s="1">
+        <v>35565</v>
+      </c>
+      <c r="F81" s="1">
+        <v>26307</v>
+      </c>
+      <c r="G81" s="1">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>512</v>
+      </c>
+      <c r="B82" s="1">
+        <v>140059</v>
+      </c>
+      <c r="C82" s="1">
+        <v>21054</v>
+      </c>
+      <c r="D82" s="1">
+        <v>88968</v>
+      </c>
+      <c r="E82" s="1">
+        <v>293934</v>
+      </c>
+      <c r="F82" s="1">
+        <v>91084</v>
+      </c>
+      <c r="G82" s="1">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1139062</v>
+      </c>
+      <c r="C83" s="1">
+        <v>67265</v>
+      </c>
+      <c r="D83" s="1">
+        <v>193422</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2415255</v>
+      </c>
+      <c r="F83" s="1">
+        <v>291638</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1017428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9196672</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1389486</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1672463</v>
+      </c>
+      <c r="E84" s="1">
+        <v>21009373</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2032767</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2385961</v>
       </c>
     </row>
   </sheetData>
